--- a/data/TFC_MAIN_DATA_R-2to1.xlsx
+++ b/data/TFC_MAIN_DATA_R-2to1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\OP_Night_Shift\New_Dash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA19FB4-8354-4BE4-AC68-0259988162F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F01124-14F5-4112-AF2A-E6073079348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="2205" windowWidth="21600" windowHeight="12705" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="128">
   <si>
     <t>Component</t>
   </si>
@@ -424,6 +424,12 @@
   <si>
     <t>Super Service</t>
   </si>
+  <si>
+    <t>TM Additives</t>
+  </si>
+  <si>
+    <t>Mango discounter</t>
+  </si>
 </sst>
 </file>
 
@@ -471,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -481,6 +487,51 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,9 +834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2186,6 +2239,342 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R25" s="1">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>10.792199999999999</v>
+      </c>
+      <c r="F26" s="9">
+        <v>116933.62420000001</v>
+      </c>
+      <c r="G26" s="9">
+        <v>8288.7278999999999</v>
+      </c>
+      <c r="H26" s="9">
+        <v>158990.06469999999</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="J26" s="9">
+        <v>397903.22580000001</v>
+      </c>
+      <c r="K26" s="9">
+        <v>518568</v>
+      </c>
+      <c r="L26" s="11">
+        <v>3.2524999999999999</v>
+      </c>
+      <c r="M26" s="9">
+        <v>14120.703600000001</v>
+      </c>
+      <c r="N26" s="9">
+        <v>5.5030000000000001</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>2.8E-3</v>
+      </c>
+      <c r="R26" s="9">
+        <v>4294265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>10.444000000000001</v>
+      </c>
+      <c r="F27" s="9">
+        <v>317913.07900000003</v>
+      </c>
+      <c r="G27" s="9">
+        <v>143912.7365</v>
+      </c>
+      <c r="H27" s="9">
+        <v>229760.08480000001</v>
+      </c>
+      <c r="I27" s="12">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="J27" s="9">
+        <v>587660</v>
+      </c>
+      <c r="K27" s="9">
+        <v>753938</v>
+      </c>
+      <c r="L27" s="11">
+        <v>3.2793000000000001</v>
+      </c>
+      <c r="M27" s="9">
+        <v>39052.323400000001</v>
+      </c>
+      <c r="N27" s="9">
+        <v>6.6496000000000004</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="R27" s="9">
+        <v>6137578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E28" s="11">
+        <v>9.6027000000000005</v>
+      </c>
+      <c r="F28" s="9">
+        <v>542228.71010000003</v>
+      </c>
+      <c r="G28" s="9">
+        <v>62036.271000000001</v>
+      </c>
+      <c r="H28" s="9">
+        <v>41313.084300000002</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="9">
+        <v>112930.5135</v>
+      </c>
+      <c r="K28" s="9">
+        <v>187961</v>
+      </c>
+      <c r="L28" s="11">
+        <v>4.5392000000000001</v>
+      </c>
+      <c r="M28" s="9">
+        <v>93981.773199999996</v>
+      </c>
+      <c r="N28" s="9">
+        <v>12.9093</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>1.55E-2</v>
+      </c>
+      <c r="R28" s="9">
+        <v>1084445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="D29" s="10">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E29" s="11">
+        <v>3.5103</v>
+      </c>
+      <c r="F29" s="9">
+        <v>108633.514</v>
+      </c>
+      <c r="G29" s="9">
+        <v>4363.7284</v>
+      </c>
+      <c r="H29" s="9">
+        <v>4010.5617000000002</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1.0315000000000001</v>
+      </c>
+      <c r="J29" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K29" s="9">
+        <v>27449</v>
+      </c>
+      <c r="L29" s="11">
+        <v>6.8407999999999998</v>
+      </c>
+      <c r="M29" s="9">
+        <v>28314.761299999998</v>
+      </c>
+      <c r="N29" s="9">
+        <v>9.0328999999999997</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="R29" s="9">
+        <v>105311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="D30" s="10">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E30" s="11">
+        <v>6.3243999999999998</v>
+      </c>
+      <c r="F30" s="9">
+        <v>9353.2401000000009</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1921.1624999999999</v>
+      </c>
+      <c r="H30" s="9">
+        <v>89.497</v>
+      </c>
+      <c r="I30" s="12">
+        <v>3.8610000000000002</v>
+      </c>
+      <c r="J30" s="9">
+        <v>383.02749999999997</v>
+      </c>
+      <c r="K30" s="9">
+        <v>497</v>
+      </c>
+      <c r="L30" s="11">
+        <v>5.5315000000000003</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1918.6342999999999</v>
+      </c>
+      <c r="N30" s="9">
+        <v>13.1227</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="R30" s="9">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="9">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="E31" s="11">
+        <v>4.3807</v>
+      </c>
+      <c r="F31" s="9">
+        <v>8639.0226999999995</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1340.7746</v>
+      </c>
+      <c r="H31" s="9">
+        <v>170.47489999999999</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1.9211</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1026.49</v>
+      </c>
+      <c r="K31" s="9">
+        <v>899</v>
+      </c>
+      <c r="L31" s="11">
+        <v>5.2702999999999998</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1727.5316</v>
+      </c>
+      <c r="N31" s="9">
+        <v>16.5304</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="R31" s="9">
         <v>4497</v>
       </c>
     </row>
@@ -2235,9 +2624,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4088,6 +4479,456 @@
         <v>1.5052000000000001</v>
       </c>
       <c r="P37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="44">
+        <v>2</v>
+      </c>
+      <c r="E38" s="44">
+        <v>31194.108400000001</v>
+      </c>
+      <c r="F38" s="44">
+        <v>7646.3582999999999</v>
+      </c>
+      <c r="G38" s="45">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="H38" s="46">
+        <v>0.24512187520000001</v>
+      </c>
+      <c r="I38" s="44">
+        <v>3355.8996999999999</v>
+      </c>
+      <c r="J38" s="46">
+        <v>0.10758120390000001</v>
+      </c>
+      <c r="K38" s="45">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="L38" s="45">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="M38" s="45">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="N38" s="45">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="O38" s="46">
+        <v>1.4944</v>
+      </c>
+      <c r="P38" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="44">
+        <v>2</v>
+      </c>
+      <c r="E39" s="44">
+        <v>86240.124899999995</v>
+      </c>
+      <c r="F39" s="44">
+        <v>38050.813999999998</v>
+      </c>
+      <c r="G39" s="45">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="H39" s="46">
+        <v>0.4412193754</v>
+      </c>
+      <c r="I39" s="44">
+        <v>18002.971799999999</v>
+      </c>
+      <c r="J39" s="46">
+        <v>0.20875400869999999</v>
+      </c>
+      <c r="K39" s="45">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="L39" s="45">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="M39" s="45">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="N39" s="45">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="O39" s="46">
+        <v>1.0301</v>
+      </c>
+      <c r="P39" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="44">
+        <v>2</v>
+      </c>
+      <c r="E40" s="44">
+        <v>53829.2791</v>
+      </c>
+      <c r="F40" s="44">
+        <v>25333.888999999999</v>
+      </c>
+      <c r="G40" s="45">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="H40" s="46">
+        <v>0.47063400039999997</v>
+      </c>
+      <c r="I40" s="44">
+        <v>11081.8406</v>
+      </c>
+      <c r="J40" s="46">
+        <v>0.20587012930000001</v>
+      </c>
+      <c r="K40" s="45">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="L40" s="45">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="M40" s="45">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="N40" s="45">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="O40" s="46">
+        <v>1.0436000000000001</v>
+      </c>
+      <c r="P40" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="44">
+        <v>2</v>
+      </c>
+      <c r="E41" s="44">
+        <v>10765.454100000001</v>
+      </c>
+      <c r="F41" s="44">
+        <v>3377.7258000000002</v>
+      </c>
+      <c r="G41" s="45">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="H41" s="46">
+        <v>0.3137560003</v>
+      </c>
+      <c r="I41" s="44">
+        <v>1553.3130000000001</v>
+      </c>
+      <c r="J41" s="46">
+        <v>0.14428681260000001</v>
+      </c>
+      <c r="K41" s="45">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="L41" s="45">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="M41" s="45">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="N41" s="45">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O41" s="46">
+        <v>1.9781</v>
+      </c>
+      <c r="P41" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="44">
+        <v>2</v>
+      </c>
+      <c r="E42" s="44">
+        <v>23126.498500000002</v>
+      </c>
+      <c r="F42" s="44">
+        <v>4857.5718999999999</v>
+      </c>
+      <c r="G42" s="45">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="H42" s="46">
+        <v>0.2100435538</v>
+      </c>
+      <c r="I42" s="44">
+        <v>2205.7574</v>
+      </c>
+      <c r="J42" s="46">
+        <v>9.5377926299999999E-2</v>
+      </c>
+      <c r="K42" s="45">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="L42" s="45">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="M42" s="45">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N42" s="45">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="O42" s="46">
+        <v>1.1882999999999999</v>
+      </c>
+      <c r="P42" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="44">
+        <v>2</v>
+      </c>
+      <c r="E43" s="44">
+        <v>9995.4830999999995</v>
+      </c>
+      <c r="F43" s="44">
+        <v>2385.7804000000001</v>
+      </c>
+      <c r="G43" s="45">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="H43" s="46">
+        <v>0.2386858566</v>
+      </c>
+      <c r="I43" s="44">
+        <v>1010.9949</v>
+      </c>
+      <c r="J43" s="46">
+        <v>0.1011451853</v>
+      </c>
+      <c r="K43" s="45">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="L43" s="45">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M43" s="45">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="N43" s="45">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="O43" s="46">
+        <v>1.4441999999999999</v>
+      </c>
+      <c r="P43" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="44">
+        <v>8010.4328999999998</v>
+      </c>
+      <c r="F44" s="44">
+        <v>4206.3495000000003</v>
+      </c>
+      <c r="G44" s="45">
+        <v>6.3E-3</v>
+      </c>
+      <c r="H44" s="46">
+        <v>0.52510888460000005</v>
+      </c>
+      <c r="I44" s="44">
+        <v>1425.9042999999999</v>
+      </c>
+      <c r="J44" s="46">
+        <v>0.1780059011</v>
+      </c>
+      <c r="K44" s="45">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="L44" s="45">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="M44" s="45">
+        <v>0.9637</v>
+      </c>
+      <c r="N44" s="45">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="O44" s="46">
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="P44" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="44">
+        <v>2</v>
+      </c>
+      <c r="E45" s="44">
+        <v>3490.4708000000001</v>
+      </c>
+      <c r="F45" s="44">
+        <v>1066.4013</v>
+      </c>
+      <c r="G45" s="45">
+        <v>6.6E-3</v>
+      </c>
+      <c r="H45" s="46">
+        <v>0.30551789639999999</v>
+      </c>
+      <c r="I45" s="44">
+        <v>474.87400000000002</v>
+      </c>
+      <c r="J45" s="46">
+        <v>0.1360487088</v>
+      </c>
+      <c r="K45" s="45">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="L45" s="45">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="M45" s="45">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="N45" s="45">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="O45" s="46">
+        <v>1.9278999999999999</v>
+      </c>
+      <c r="P45" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="44">
+        <v>2</v>
+      </c>
+      <c r="E46" s="44">
+        <v>140556.3401</v>
+      </c>
+      <c r="F46" s="44">
+        <v>30999.8174</v>
+      </c>
+      <c r="G46" s="45">
+        <v>1.72E-2</v>
+      </c>
+      <c r="H46" s="46">
+        <v>0.22055082970000001</v>
+      </c>
+      <c r="I46" s="44">
+        <v>14882.836499999999</v>
+      </c>
+      <c r="J46" s="46">
+        <v>0.1058852022</v>
+      </c>
+      <c r="K46" s="45">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="L46" s="45">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="M46" s="45">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="N46" s="45">
+        <v>0.98</v>
+      </c>
+      <c r="O46" s="46">
+        <v>1.1908000000000001</v>
+      </c>
+      <c r="P46" s="45">
         <v>0</v>
       </c>
     </row>
@@ -4098,9 +4939,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4231,6 +5074,32 @@
         <v>7504.308</v>
       </c>
       <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="47">
+        <v>2</v>
+      </c>
+      <c r="C6" s="47">
+        <v>216401.2028</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0.9899</v>
+      </c>
+      <c r="E6" s="47">
+        <v>708.529</v>
+      </c>
+      <c r="F6" s="47">
+        <v>266.29680000000002</v>
+      </c>
+      <c r="G6" s="47">
+        <v>7481.1517000000003</v>
+      </c>
+      <c r="H6" s="47">
         <v>0</v>
       </c>
     </row>
@@ -4241,9 +5110,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6170,6 +7041,468 @@
       </c>
       <c r="Y25" s="1">
         <v>4532.7226000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="49">
+        <v>2</v>
+      </c>
+      <c r="D26" s="49">
+        <v>163682.83859999999</v>
+      </c>
+      <c r="E26" s="49">
+        <v>35857.389300000003</v>
+      </c>
+      <c r="F26" s="52">
+        <v>0.21906627270000001</v>
+      </c>
+      <c r="G26" s="52">
+        <v>0.1044006452</v>
+      </c>
+      <c r="H26" s="49">
+        <v>17088.5939</v>
+      </c>
+      <c r="I26" s="50">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="J26" s="50">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="K26" s="50">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="L26" s="51">
+        <v>4.6619000000000002</v>
+      </c>
+      <c r="M26" s="50">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="N26" s="49">
+        <v>293.52800000000002</v>
+      </c>
+      <c r="O26" s="51">
+        <v>3.1735000000000002</v>
+      </c>
+      <c r="P26" s="51">
+        <v>59564.473100000003</v>
+      </c>
+      <c r="Q26" s="49">
+        <v>6.8589000000000002</v>
+      </c>
+      <c r="R26" s="50">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="S26" s="50">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="T26" s="49">
+        <v>24.311499999999999</v>
+      </c>
+      <c r="U26" s="49">
+        <v>3168.683</v>
+      </c>
+      <c r="V26" s="50">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="W26" s="49">
+        <v>1039.9449</v>
+      </c>
+      <c r="X26" s="53">
+        <v>1.1904999999999999</v>
+      </c>
+      <c r="Y26" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="49">
+        <v>2</v>
+      </c>
+      <c r="D27" s="49">
+        <v>41189.5916</v>
+      </c>
+      <c r="E27" s="49">
+        <v>10032.138800000001</v>
+      </c>
+      <c r="F27" s="52">
+        <v>0.24356004580000001</v>
+      </c>
+      <c r="G27" s="52">
+        <v>0.1060193745</v>
+      </c>
+      <c r="H27" s="49">
+        <v>4366.8946999999998</v>
+      </c>
+      <c r="I27" s="50">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="J27" s="50">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="K27" s="50">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="L27" s="51">
+        <v>2.9714</v>
+      </c>
+      <c r="M27" s="50">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="N27" s="49">
+        <v>477.18270000000001</v>
+      </c>
+      <c r="O27" s="51">
+        <v>3.5013999999999998</v>
+      </c>
+      <c r="P27" s="51">
+        <v>19836.359799999998</v>
+      </c>
+      <c r="Q27" s="49">
+        <v>7.3339999999999996</v>
+      </c>
+      <c r="R27" s="50">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="S27" s="50">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="T27" s="49">
+        <v>15.056900000000001</v>
+      </c>
+      <c r="U27" s="49">
+        <v>2358.5007000000001</v>
+      </c>
+      <c r="V27" s="50">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="W27" s="49">
+        <v>1065.6419000000001</v>
+      </c>
+      <c r="X27" s="53">
+        <v>1.4823</v>
+      </c>
+      <c r="Y27" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="49">
+        <v>2</v>
+      </c>
+      <c r="D28" s="49">
+        <v>86240.124899999995</v>
+      </c>
+      <c r="E28" s="49">
+        <v>38050.813999999998</v>
+      </c>
+      <c r="F28" s="52">
+        <v>0.4412193754</v>
+      </c>
+      <c r="G28" s="52">
+        <v>0.20875400869999999</v>
+      </c>
+      <c r="H28" s="49">
+        <v>18002.971799999999</v>
+      </c>
+      <c r="I28" s="50">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J28" s="50">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="K28" s="50">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="L28" s="51">
+        <v>1.7104999999999999</v>
+      </c>
+      <c r="M28" s="50">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="N28" s="49">
+        <v>1395.9970000000001</v>
+      </c>
+      <c r="O28" s="51">
+        <v>2.9512999999999998</v>
+      </c>
+      <c r="P28" s="51">
+        <v>59168.541400000002</v>
+      </c>
+      <c r="Q28" s="49">
+        <v>6.6936999999999998</v>
+      </c>
+      <c r="R28" s="50">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="S28" s="50">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="T28" s="49">
+        <v>20.423999999999999</v>
+      </c>
+      <c r="U28" s="49">
+        <v>1619.0255</v>
+      </c>
+      <c r="V28" s="50">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="W28" s="49">
+        <v>835.29750000000001</v>
+      </c>
+      <c r="X28" s="53">
+        <v>1.0301</v>
+      </c>
+      <c r="Y28" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="49">
+        <v>2</v>
+      </c>
+      <c r="D29" s="49">
+        <v>53829.2791</v>
+      </c>
+      <c r="E29" s="49">
+        <v>25333.888999999999</v>
+      </c>
+      <c r="F29" s="52">
+        <v>0.47063400039999997</v>
+      </c>
+      <c r="G29" s="52">
+        <v>0.20587012930000001</v>
+      </c>
+      <c r="H29" s="49">
+        <v>11081.8406</v>
+      </c>
+      <c r="I29" s="50">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="J29" s="50">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="K29" s="50">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="L29" s="51">
+        <v>1.7094</v>
+      </c>
+      <c r="M29" s="50">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="N29" s="49">
+        <v>931.05529999999999</v>
+      </c>
+      <c r="O29" s="51">
+        <v>2.8612000000000002</v>
+      </c>
+      <c r="P29" s="51">
+        <v>40778.675199999998</v>
+      </c>
+      <c r="Q29" s="49">
+        <v>6.6204000000000001</v>
+      </c>
+      <c r="R29" s="50">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="S29" s="50">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="T29" s="49">
+        <v>19.698699999999999</v>
+      </c>
+      <c r="U29" s="49">
+        <v>1786.3471999999999</v>
+      </c>
+      <c r="V29" s="50">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="W29" s="49">
+        <v>827.73599999999999</v>
+      </c>
+      <c r="X29" s="53">
+        <v>1.0436000000000001</v>
+      </c>
+      <c r="Y29" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="49">
+        <v>2</v>
+      </c>
+      <c r="D30" s="49">
+        <v>8010.4328999999998</v>
+      </c>
+      <c r="E30" s="49">
+        <v>4206.3495000000003</v>
+      </c>
+      <c r="F30" s="52">
+        <v>0.52510888460000005</v>
+      </c>
+      <c r="G30" s="52">
+        <v>0.1780059011</v>
+      </c>
+      <c r="H30" s="49">
+        <v>1425.9042999999999</v>
+      </c>
+      <c r="I30" s="50">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="J30" s="50">
+        <v>0.9637</v>
+      </c>
+      <c r="K30" s="50">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="L30" s="51">
+        <v>3.4188000000000001</v>
+      </c>
+      <c r="M30" s="50">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="N30" s="49">
+        <v>223.56800000000001</v>
+      </c>
+      <c r="O30" s="51">
+        <v>4.1224999999999996</v>
+      </c>
+      <c r="P30" s="51">
+        <v>11462.5396</v>
+      </c>
+      <c r="Q30" s="49">
+        <v>8.1187000000000005</v>
+      </c>
+      <c r="R30" s="50">
+        <v>0.61709999999999998</v>
+      </c>
+      <c r="S30" s="50">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="T30" s="49">
+        <v>12.997</v>
+      </c>
+      <c r="U30" s="49">
+        <v>1538.3641</v>
+      </c>
+      <c r="V30" s="50">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="W30" s="49">
+        <v>743.26310000000001</v>
+      </c>
+      <c r="X30" s="53">
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="Y30" s="49">
+        <v>1208.3924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="49">
+        <v>2</v>
+      </c>
+      <c r="D31" s="49">
+        <v>14255.924999999999</v>
+      </c>
+      <c r="E31" s="49">
+        <v>4444.1270999999997</v>
+      </c>
+      <c r="F31" s="52">
+        <v>0.3117389539</v>
+      </c>
+      <c r="G31" s="52">
+        <v>0.14226976629999999</v>
+      </c>
+      <c r="H31" s="49">
+        <v>2028.1871000000001</v>
+      </c>
+      <c r="I31" s="50">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="J31" s="50">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="K31" s="50">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="L31" s="51">
+        <v>2.6244000000000001</v>
+      </c>
+      <c r="M31" s="50">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="N31" s="49">
+        <v>316.9008</v>
+      </c>
+      <c r="O31" s="51">
+        <v>3.8925000000000001</v>
+      </c>
+      <c r="P31" s="51">
+        <v>9404.1221999999998</v>
+      </c>
+      <c r="Q31" s="49">
+        <v>8.1184999999999992</v>
+      </c>
+      <c r="R31" s="50">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="S31" s="50">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="T31" s="49">
+        <v>14.157500000000001</v>
+      </c>
+      <c r="U31" s="49">
+        <v>2732.7577000000001</v>
+      </c>
+      <c r="V31" s="50">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="W31" s="49">
+        <v>1518.2494999999999</v>
+      </c>
+      <c r="X31" s="53">
+        <v>1.9658</v>
+      </c>
+      <c r="Y31" s="49">
+        <v>1271.9683</v>
       </c>
     </row>
   </sheetData>
@@ -6179,10 +7512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6915,6 +8248,180 @@
         <v>156885.921</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="E26" s="15">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="F26" s="16">
+        <v>6.3243999999999998</v>
+      </c>
+      <c r="G26" s="16">
+        <v>6.3243999999999998</v>
+      </c>
+      <c r="H26" s="14">
+        <v>9353.2401000000009</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1921.1624999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="14">
+        <v>2</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1.12E-2</v>
+      </c>
+      <c r="F27" s="16">
+        <v>9.6027000000000005</v>
+      </c>
+      <c r="G27" s="16">
+        <v>9.6027000000000005</v>
+      </c>
+      <c r="H27" s="14">
+        <v>542228.71010000003</v>
+      </c>
+      <c r="I27" s="14">
+        <v>62036.271000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="14">
+        <v>2</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="E28" s="15">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="F28" s="16">
+        <v>4.3807</v>
+      </c>
+      <c r="G28" s="16">
+        <v>4.3807</v>
+      </c>
+      <c r="H28" s="14">
+        <v>8639.0226999999995</v>
+      </c>
+      <c r="I28" s="14">
+        <v>1340.7746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="14">
+        <v>2</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="E29" s="15">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F29" s="16">
+        <v>3.5103</v>
+      </c>
+      <c r="G29" s="16">
+        <v>3.5103</v>
+      </c>
+      <c r="H29" s="14">
+        <v>108633.514</v>
+      </c>
+      <c r="I29" s="14">
+        <v>4363.7284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="14">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="E30" s="15">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="F30" s="16">
+        <v>10.792199999999999</v>
+      </c>
+      <c r="G30" s="16">
+        <v>10.792199999999999</v>
+      </c>
+      <c r="H30" s="14">
+        <v>116933.62420000001</v>
+      </c>
+      <c r="I30" s="14">
+        <v>8288.7278999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="14">
+        <v>2</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2.86E-2</v>
+      </c>
+      <c r="F31" s="16">
+        <v>10.444000000000001</v>
+      </c>
+      <c r="G31" s="16">
+        <v>10.444000000000001</v>
+      </c>
+      <c r="H31" s="14">
+        <v>317913.07900000003</v>
+      </c>
+      <c r="I31" s="14">
+        <v>143912.7365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -6922,9 +8429,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7801,6 +9310,216 @@
       </c>
       <c r="K25" s="1">
         <v>1194232.6152999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="17">
+        <v>2</v>
+      </c>
+      <c r="D26" s="18">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E26" s="19">
+        <v>6.3243999999999998</v>
+      </c>
+      <c r="F26" s="17">
+        <v>9353.2401000000009</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1921.1624999999999</v>
+      </c>
+      <c r="H26" s="17">
+        <v>89.497</v>
+      </c>
+      <c r="I26" s="17">
+        <v>2422</v>
+      </c>
+      <c r="J26" s="20">
+        <v>3.8610000000000002</v>
+      </c>
+      <c r="K26" s="17">
+        <v>383.02749999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="17">
+        <v>2</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E27" s="19">
+        <v>9.6027000000000005</v>
+      </c>
+      <c r="F27" s="17">
+        <v>542228.71010000003</v>
+      </c>
+      <c r="G27" s="17">
+        <v>62036.271000000001</v>
+      </c>
+      <c r="H27" s="17">
+        <v>41313.084300000002</v>
+      </c>
+      <c r="I27" s="17">
+        <v>1084445</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="17">
+        <v>112930.5135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="17">
+        <v>2</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="E28" s="19">
+        <v>4.3807</v>
+      </c>
+      <c r="F28" s="17">
+        <v>8639.0226999999995</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1340.7746</v>
+      </c>
+      <c r="H28" s="17">
+        <v>170.47489999999999</v>
+      </c>
+      <c r="I28" s="17">
+        <v>4497</v>
+      </c>
+      <c r="J28" s="20">
+        <v>1.9211</v>
+      </c>
+      <c r="K28" s="17">
+        <v>1026.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="17">
+        <v>2</v>
+      </c>
+      <c r="D29" s="18">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E29" s="19">
+        <v>3.5103</v>
+      </c>
+      <c r="F29" s="17">
+        <v>108633.514</v>
+      </c>
+      <c r="G29" s="17">
+        <v>4363.7284</v>
+      </c>
+      <c r="H29" s="17">
+        <v>4010.5617000000002</v>
+      </c>
+      <c r="I29" s="17">
+        <v>105311</v>
+      </c>
+      <c r="J29" s="20">
+        <v>1.0315000000000001</v>
+      </c>
+      <c r="K29" s="17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="17">
+        <v>2</v>
+      </c>
+      <c r="D30" s="18">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="E30" s="19">
+        <v>10.792199999999999</v>
+      </c>
+      <c r="F30" s="17">
+        <v>116933.62420000001</v>
+      </c>
+      <c r="G30" s="17">
+        <v>8288.7278999999999</v>
+      </c>
+      <c r="H30" s="17">
+        <v>158990.06469999999</v>
+      </c>
+      <c r="I30" s="17">
+        <v>4294265</v>
+      </c>
+      <c r="J30" s="20">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="K30" s="17">
+        <v>397903.22580000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="17">
+        <v>2</v>
+      </c>
+      <c r="D31" s="18">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E31" s="19">
+        <v>10.444000000000001</v>
+      </c>
+      <c r="F31" s="17">
+        <v>317913.07900000003</v>
+      </c>
+      <c r="G31" s="17">
+        <v>143912.7365</v>
+      </c>
+      <c r="H31" s="17">
+        <v>229760.08480000001</v>
+      </c>
+      <c r="I31" s="17">
+        <v>6137578</v>
+      </c>
+      <c r="J31" s="20">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="K31" s="17">
+        <v>587660</v>
       </c>
     </row>
   </sheetData>
@@ -7812,8 +9531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8073,6 +9792,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23">
+        <v>66.818399999999997</v>
+      </c>
+      <c r="D6" s="23">
+        <v>13.962</v>
+      </c>
+      <c r="E6" s="21">
+        <v>5.4029999999999996</v>
+      </c>
+      <c r="F6" s="23">
+        <v>34.124899999999997</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.2009</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.1163</v>
+      </c>
+      <c r="J6" s="22">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0.2843</v>
+      </c>
+      <c r="L6" s="22">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="M6" s="21">
+        <v>13203.6785</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0.93469999999999998</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+    </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7" s="2"/>
     </row>
@@ -8083,10 +9852,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8164,6 +9933,20 @@
         <v>11251.6322</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.16370000000000001</v>
+      </c>
+      <c r="D6" s="24">
+        <v>10888.808300000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -8171,9 +9954,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8824,6 +10609,156 @@
         <v>1.5052000000000001</v>
       </c>
       <c r="P13" s="1">
+        <v>32353.115300000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="26">
+        <v>2</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.98048750103625204</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.9405</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="G14" s="26">
+        <v>74408.787200000006</v>
+      </c>
+      <c r="H14" s="26">
+        <v>33994.025199999996</v>
+      </c>
+      <c r="I14" s="28">
+        <v>10.116</v>
+      </c>
+      <c r="J14" s="28">
+        <v>5.2008000000000001</v>
+      </c>
+      <c r="K14" s="28">
+        <v>248.01820000000001</v>
+      </c>
+      <c r="L14" s="28">
+        <v>12.6449</v>
+      </c>
+      <c r="M14" s="27">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="O14" s="30">
+        <v>1.0833999999999999</v>
+      </c>
+      <c r="P14" s="26">
+        <v>161878.92430000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="26">
+        <v>2</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.95474342655731703</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="G15" s="26">
+        <v>12516.1032</v>
+      </c>
+      <c r="H15" s="26">
+        <v>5117.5308000000005</v>
+      </c>
+      <c r="I15" s="28">
+        <v>3.6107999999999998</v>
+      </c>
+      <c r="J15" s="28">
+        <v>10.583500000000001</v>
+      </c>
+      <c r="K15" s="28">
+        <v>27.8141</v>
+      </c>
+      <c r="L15" s="28">
+        <v>17.070799999999998</v>
+      </c>
+      <c r="M15" s="27">
+        <v>0.8256</v>
+      </c>
+      <c r="N15" s="27">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="O15" s="30">
+        <v>1.3011999999999999</v>
+      </c>
+      <c r="P15" s="26">
+        <v>22169.163100000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="26">
+        <v>2</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1.00250377157666</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="G16" s="26">
+        <v>30999.8174</v>
+      </c>
+      <c r="H16" s="26">
+        <v>14882.836499999999</v>
+      </c>
+      <c r="I16" s="28">
+        <v>2.2561</v>
+      </c>
+      <c r="J16" s="28">
+        <v>1.3122</v>
+      </c>
+      <c r="K16" s="28">
+        <v>49.3249</v>
+      </c>
+      <c r="L16" s="28">
+        <v>14.3544</v>
+      </c>
+      <c r="M16" s="27">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="N16" s="27">
+        <v>0.98</v>
+      </c>
+      <c r="O16" s="30">
+        <v>1.1908000000000001</v>
+      </c>
+      <c r="P16" s="26">
         <v>32353.115300000001</v>
       </c>
     </row>
@@ -8834,10 +10769,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q40:Q41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10584,6 +12519,429 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="31">
+        <v>2</v>
+      </c>
+      <c r="D38" s="31">
+        <v>31194.108400000001</v>
+      </c>
+      <c r="E38" s="31">
+        <v>7646.3582999999999</v>
+      </c>
+      <c r="F38" s="34">
+        <v>0.24512187520000001</v>
+      </c>
+      <c r="G38" s="31">
+        <v>3355.8996999999999</v>
+      </c>
+      <c r="H38" s="33">
+        <v>0.10758120390000001</v>
+      </c>
+      <c r="I38" s="32">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="J38" s="32">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="K38" s="32">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="L38" s="32">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="M38" s="32">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="N38" s="34">
+        <v>1.4944</v>
+      </c>
+      <c r="O38" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="31">
+        <v>2</v>
+      </c>
+      <c r="D39" s="31">
+        <v>86240.124899999995</v>
+      </c>
+      <c r="E39" s="31">
+        <v>38050.813999999998</v>
+      </c>
+      <c r="F39" s="34">
+        <v>0.4412193754</v>
+      </c>
+      <c r="G39" s="31">
+        <v>18002.971799999999</v>
+      </c>
+      <c r="H39" s="33">
+        <v>0.20875400869999999</v>
+      </c>
+      <c r="I39" s="32">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="J39" s="32">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="K39" s="32">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="L39" s="32">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="M39" s="32">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="N39" s="34">
+        <v>1.0301</v>
+      </c>
+      <c r="O39" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="31">
+        <v>2</v>
+      </c>
+      <c r="D40" s="31">
+        <v>53829.2791</v>
+      </c>
+      <c r="E40" s="31">
+        <v>25333.888999999999</v>
+      </c>
+      <c r="F40" s="34">
+        <v>0.47063400039999997</v>
+      </c>
+      <c r="G40" s="31">
+        <v>11081.8406</v>
+      </c>
+      <c r="H40" s="33">
+        <v>0.20587012930000001</v>
+      </c>
+      <c r="I40" s="32">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="J40" s="32">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="K40" s="32">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="L40" s="32">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="M40" s="32">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="N40" s="34">
+        <v>1.0436000000000001</v>
+      </c>
+      <c r="O40" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="31">
+        <v>2</v>
+      </c>
+      <c r="D41" s="31">
+        <v>10765.454100000001</v>
+      </c>
+      <c r="E41" s="31">
+        <v>3377.7258000000002</v>
+      </c>
+      <c r="F41" s="34">
+        <v>0.3137560003</v>
+      </c>
+      <c r="G41" s="31">
+        <v>1553.3130000000001</v>
+      </c>
+      <c r="H41" s="33">
+        <v>0.14428681260000001</v>
+      </c>
+      <c r="I41" s="32">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="J41" s="32">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="K41" s="32">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="L41" s="32">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="M41" s="32">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N41" s="34">
+        <v>1.9781</v>
+      </c>
+      <c r="O41" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="31">
+        <v>2</v>
+      </c>
+      <c r="D42" s="31">
+        <v>23126.498500000002</v>
+      </c>
+      <c r="E42" s="31">
+        <v>4857.5718999999999</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0.2100435538</v>
+      </c>
+      <c r="G42" s="31">
+        <v>2205.7574</v>
+      </c>
+      <c r="H42" s="33">
+        <v>9.5377926299999999E-2</v>
+      </c>
+      <c r="I42" s="32">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="J42" s="32">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="K42" s="32">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L42" s="32">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="M42" s="32">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="N42" s="34">
+        <v>1.1882999999999999</v>
+      </c>
+      <c r="O42" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="31">
+        <v>2</v>
+      </c>
+      <c r="D43" s="31">
+        <v>9995.4830999999995</v>
+      </c>
+      <c r="E43" s="31">
+        <v>2385.7804000000001</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0.2386858566</v>
+      </c>
+      <c r="G43" s="31">
+        <v>1010.9949</v>
+      </c>
+      <c r="H43" s="33">
+        <v>0.1011451853</v>
+      </c>
+      <c r="I43" s="32">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="J43" s="32">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K43" s="32">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="L43" s="32">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="M43" s="32">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N43" s="34">
+        <v>1.4441999999999999</v>
+      </c>
+      <c r="O43" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="31">
+        <v>2</v>
+      </c>
+      <c r="D44" s="31">
+        <v>8010.4328999999998</v>
+      </c>
+      <c r="E44" s="31">
+        <v>4206.3495000000003</v>
+      </c>
+      <c r="F44" s="34">
+        <v>0.52510888460000005</v>
+      </c>
+      <c r="G44" s="31">
+        <v>1425.9042999999999</v>
+      </c>
+      <c r="H44" s="33">
+        <v>0.1780059011</v>
+      </c>
+      <c r="I44" s="32">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="J44" s="32">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="K44" s="32">
+        <v>0.9637</v>
+      </c>
+      <c r="L44" s="32">
+        <v>6.3E-3</v>
+      </c>
+      <c r="M44" s="32">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="N44" s="34">
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="O44" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="31">
+        <v>2</v>
+      </c>
+      <c r="D45" s="31">
+        <v>3490.4708000000001</v>
+      </c>
+      <c r="E45" s="31">
+        <v>1066.4013</v>
+      </c>
+      <c r="F45" s="34">
+        <v>0.30551789639999999</v>
+      </c>
+      <c r="G45" s="31">
+        <v>474.87400000000002</v>
+      </c>
+      <c r="H45" s="33">
+        <v>0.1360487088</v>
+      </c>
+      <c r="I45" s="32">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="J45" s="32">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="K45" s="32">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="L45" s="32">
+        <v>6.6E-3</v>
+      </c>
+      <c r="M45" s="32">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="N45" s="34">
+        <v>1.9278999999999999</v>
+      </c>
+      <c r="O45" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="31">
+        <v>2</v>
+      </c>
+      <c r="D46" s="31">
+        <v>140556.3401</v>
+      </c>
+      <c r="E46" s="31">
+        <v>30999.8174</v>
+      </c>
+      <c r="F46" s="34">
+        <v>0.22055082970000001</v>
+      </c>
+      <c r="G46" s="31">
+        <v>14882.836499999999</v>
+      </c>
+      <c r="H46" s="33">
+        <v>0.1058852022</v>
+      </c>
+      <c r="I46" s="32">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="J46" s="32">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="K46" s="32">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="L46" s="32">
+        <v>1.72E-2</v>
+      </c>
+      <c r="M46" s="32">
+        <v>0.98</v>
+      </c>
+      <c r="N46" s="34">
+        <v>1.1908000000000001</v>
+      </c>
+      <c r="O46" s="32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -10591,9 +12949,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12445,6 +14805,450 @@
       </c>
       <c r="X25" s="1">
         <v>4532.7226000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="35">
+        <v>2</v>
+      </c>
+      <c r="C26" s="35">
+        <v>163682.83859999999</v>
+      </c>
+      <c r="D26" s="35">
+        <v>35857.389300000003</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0.21906627270000001</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0.1044006452</v>
+      </c>
+      <c r="G26" s="35">
+        <v>17088.5939</v>
+      </c>
+      <c r="H26" s="36">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="I26" s="36">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="J26" s="36">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="K26" s="37">
+        <v>4.6619000000000002</v>
+      </c>
+      <c r="L26" s="36">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="M26" s="35">
+        <v>293.52800000000002</v>
+      </c>
+      <c r="N26" s="37">
+        <v>3.1735000000000002</v>
+      </c>
+      <c r="O26" s="37">
+        <v>59564.473100000003</v>
+      </c>
+      <c r="P26" s="35">
+        <v>6.8589000000000002</v>
+      </c>
+      <c r="Q26" s="36">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="R26" s="36">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="S26" s="35">
+        <v>24.311499999999999</v>
+      </c>
+      <c r="T26" s="35">
+        <v>3168.683</v>
+      </c>
+      <c r="U26" s="36">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="V26" s="35">
+        <v>1039.9449</v>
+      </c>
+      <c r="W26" s="39">
+        <v>1.1904999999999999</v>
+      </c>
+      <c r="X26" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="35">
+        <v>2</v>
+      </c>
+      <c r="C27" s="35">
+        <v>41189.5916</v>
+      </c>
+      <c r="D27" s="35">
+        <v>10032.138800000001</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0.24356004580000001</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0.1060193745</v>
+      </c>
+      <c r="G27" s="35">
+        <v>4366.8946999999998</v>
+      </c>
+      <c r="H27" s="36">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="I27" s="36">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="J27" s="36">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="K27" s="37">
+        <v>2.9714</v>
+      </c>
+      <c r="L27" s="36">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="M27" s="35">
+        <v>477.18270000000001</v>
+      </c>
+      <c r="N27" s="37">
+        <v>3.5013999999999998</v>
+      </c>
+      <c r="O27" s="37">
+        <v>19836.359799999998</v>
+      </c>
+      <c r="P27" s="35">
+        <v>7.3339999999999996</v>
+      </c>
+      <c r="Q27" s="36">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="R27" s="36">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="S27" s="35">
+        <v>15.056900000000001</v>
+      </c>
+      <c r="T27" s="35">
+        <v>2358.5007000000001</v>
+      </c>
+      <c r="U27" s="36">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="V27" s="35">
+        <v>1065.6419000000001</v>
+      </c>
+      <c r="W27" s="39">
+        <v>1.4823</v>
+      </c>
+      <c r="X27" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="35">
+        <v>2</v>
+      </c>
+      <c r="C28" s="35">
+        <v>86240.124899999995</v>
+      </c>
+      <c r="D28" s="35">
+        <v>38050.813999999998</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0.4412193754</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0.20875400869999999</v>
+      </c>
+      <c r="G28" s="35">
+        <v>18002.971799999999</v>
+      </c>
+      <c r="H28" s="36">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I28" s="36">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="J28" s="36">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="K28" s="37">
+        <v>1.7104999999999999</v>
+      </c>
+      <c r="L28" s="36">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="M28" s="35">
+        <v>1395.9970000000001</v>
+      </c>
+      <c r="N28" s="37">
+        <v>2.9512999999999998</v>
+      </c>
+      <c r="O28" s="37">
+        <v>59168.541400000002</v>
+      </c>
+      <c r="P28" s="35">
+        <v>6.6936999999999998</v>
+      </c>
+      <c r="Q28" s="36">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="R28" s="36">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="S28" s="35">
+        <v>20.423999999999999</v>
+      </c>
+      <c r="T28" s="35">
+        <v>1619.0255</v>
+      </c>
+      <c r="U28" s="36">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="V28" s="35">
+        <v>835.29750000000001</v>
+      </c>
+      <c r="W28" s="39">
+        <v>1.0301</v>
+      </c>
+      <c r="X28" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="35">
+        <v>2</v>
+      </c>
+      <c r="C29" s="35">
+        <v>53829.2791</v>
+      </c>
+      <c r="D29" s="35">
+        <v>25333.888999999999</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0.47063400039999997</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0.20587012930000001</v>
+      </c>
+      <c r="G29" s="35">
+        <v>11081.8406</v>
+      </c>
+      <c r="H29" s="36">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="I29" s="36">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="J29" s="36">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="K29" s="37">
+        <v>1.7094</v>
+      </c>
+      <c r="L29" s="36">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="M29" s="35">
+        <v>931.05529999999999</v>
+      </c>
+      <c r="N29" s="37">
+        <v>2.8612000000000002</v>
+      </c>
+      <c r="O29" s="37">
+        <v>40778.675199999998</v>
+      </c>
+      <c r="P29" s="35">
+        <v>6.6204000000000001</v>
+      </c>
+      <c r="Q29" s="36">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="R29" s="36">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="S29" s="35">
+        <v>19.698699999999999</v>
+      </c>
+      <c r="T29" s="35">
+        <v>1786.3471999999999</v>
+      </c>
+      <c r="U29" s="36">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="V29" s="35">
+        <v>827.73599999999999</v>
+      </c>
+      <c r="W29" s="39">
+        <v>1.0436000000000001</v>
+      </c>
+      <c r="X29" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="35">
+        <v>2</v>
+      </c>
+      <c r="C30" s="35">
+        <v>8010.4328999999998</v>
+      </c>
+      <c r="D30" s="35">
+        <v>4206.3495000000003</v>
+      </c>
+      <c r="E30" s="38">
+        <v>0.52510888460000005</v>
+      </c>
+      <c r="F30" s="38">
+        <v>0.1780059011</v>
+      </c>
+      <c r="G30" s="35">
+        <v>1425.9042999999999</v>
+      </c>
+      <c r="H30" s="36">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="I30" s="36">
+        <v>0.9637</v>
+      </c>
+      <c r="J30" s="36">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="K30" s="37">
+        <v>3.4188000000000001</v>
+      </c>
+      <c r="L30" s="36">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="M30" s="35">
+        <v>223.56800000000001</v>
+      </c>
+      <c r="N30" s="37">
+        <v>4.1224999999999996</v>
+      </c>
+      <c r="O30" s="37">
+        <v>11462.5396</v>
+      </c>
+      <c r="P30" s="35">
+        <v>8.1187000000000005</v>
+      </c>
+      <c r="Q30" s="36">
+        <v>0.61709999999999998</v>
+      </c>
+      <c r="R30" s="36">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="S30" s="35">
+        <v>12.997</v>
+      </c>
+      <c r="T30" s="35">
+        <v>1538.3641</v>
+      </c>
+      <c r="U30" s="36">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="V30" s="35">
+        <v>743.26310000000001</v>
+      </c>
+      <c r="W30" s="39">
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="X30" s="35">
+        <v>1208.3924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="35">
+        <v>2</v>
+      </c>
+      <c r="C31" s="35">
+        <v>14255.924999999999</v>
+      </c>
+      <c r="D31" s="35">
+        <v>4444.1270999999997</v>
+      </c>
+      <c r="E31" s="38">
+        <v>0.3117389539</v>
+      </c>
+      <c r="F31" s="38">
+        <v>0.14226976629999999</v>
+      </c>
+      <c r="G31" s="35">
+        <v>2028.1871000000001</v>
+      </c>
+      <c r="H31" s="36">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="I31" s="36">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="J31" s="36">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="K31" s="37">
+        <v>2.6244000000000001</v>
+      </c>
+      <c r="L31" s="36">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="M31" s="35">
+        <v>316.9008</v>
+      </c>
+      <c r="N31" s="37">
+        <v>3.8925000000000001</v>
+      </c>
+      <c r="O31" s="37">
+        <v>9404.1221999999998</v>
+      </c>
+      <c r="P31" s="35">
+        <v>8.1184999999999992</v>
+      </c>
+      <c r="Q31" s="36">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="R31" s="36">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="S31" s="35">
+        <v>14.157500000000001</v>
+      </c>
+      <c r="T31" s="35">
+        <v>2732.7577000000001</v>
+      </c>
+      <c r="U31" s="36">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="V31" s="35">
+        <v>1518.2494999999999</v>
+      </c>
+      <c r="W31" s="39">
+        <v>1.9658</v>
+      </c>
+      <c r="X31" s="35">
+        <v>1271.9683</v>
       </c>
     </row>
   </sheetData>
@@ -12454,10 +15258,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12889,6 +15693,103 @@
         <v>1.5704</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41">
+        <v>2</v>
+      </c>
+      <c r="D14" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="41">
+        <v>554.37</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0</v>
+      </c>
+      <c r="H14" s="43">
+        <v>1.7305999999999999</v>
+      </c>
+      <c r="I14" s="43">
+        <v>172.72030000000001</v>
+      </c>
+      <c r="J14" s="41">
+        <v>54.702599999999997</v>
+      </c>
+      <c r="K14" s="43">
+        <v>7.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41">
+        <v>2</v>
+      </c>
+      <c r="D15" s="41">
+        <v>10</v>
+      </c>
+      <c r="E15" s="41">
+        <v>8.1739999999999995</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0</v>
+      </c>
+      <c r="G15" s="42">
+        <v>0</v>
+      </c>
+      <c r="H15" s="43">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="I15" s="43">
+        <v>1.5297000000000001</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="41">
+        <v>2</v>
+      </c>
+      <c r="D16" s="41">
+        <v>1200</v>
+      </c>
+      <c r="E16" s="41">
+        <v>988.60739999999998</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="G16" s="42">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="H16" s="43">
+        <v>17.096599999999999</v>
+      </c>
+      <c r="I16" s="43">
+        <v>325.15730000000002</v>
+      </c>
+      <c r="J16" s="41">
+        <v>103.86369999999999</v>
+      </c>
+      <c r="K16" s="43">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/data/TFC_MAIN_DATA_R-2to1.xlsx
+++ b/data/TFC_MAIN_DATA_R-2to1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\OP_Night_Shift\New_Dash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F01124-14F5-4112-AF2A-E6073079348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211EC575-F0C5-4A97-B589-F4654EDE04C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="139">
   <si>
     <t>Component</t>
   </si>
@@ -430,6 +430,39 @@
   <si>
     <t>Mango discounter</t>
   </si>
+  <si>
+    <t>Capsule (orange)</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Capsule (red)</t>
+  </si>
+  <si>
+    <t>Style cups</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>Riesling</t>
+  </si>
+  <si>
+    <t>Capsule</t>
+  </si>
+  <si>
+    <t>Cup Canon 1.3 TDX</t>
+  </si>
+  <si>
+    <t>Webshop</t>
+  </si>
+  <si>
+    <t>Frespressie Orange</t>
+  </si>
+  <si>
+    <t>Frespressie Orange/Açai</t>
+  </si>
 </sst>
 </file>
 
@@ -477,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -519,14 +552,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -834,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,339 +2268,843 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="2">
         <v>0.94469999999999998</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="2">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="3">
         <v>10.792199999999999</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="1">
         <v>116933.62420000001</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="1">
         <v>8288.7278999999999</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="1">
         <v>158990.06469999999</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="4">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="1">
         <v>397903.22580000001</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="1">
         <v>518568</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="3">
         <v>3.2524999999999999</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="1">
         <v>14120.703600000001</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="1">
         <v>5.5030000000000001</v>
       </c>
-      <c r="O26" s="10">
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
         <v>1</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="2">
         <v>2.8E-3</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="1">
         <v>4294265</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="2">
         <v>0.93630000000000002</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="2">
         <v>2.86E-2</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="3">
         <v>10.444000000000001</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="1">
         <v>317913.07900000003</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="1">
         <v>143912.7365</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="1">
         <v>229760.08480000001</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="4">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="1">
         <v>587660</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="1">
         <v>753938</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="3">
         <v>3.2793000000000001</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="1">
         <v>39052.323400000001</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="1">
         <v>6.6496000000000004</v>
       </c>
-      <c r="O27" s="10">
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
         <v>0.99839999999999995</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="2">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="R27" s="9">
+      <c r="R27" s="1">
         <v>6137578</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="2">
         <v>0.97030000000000005</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="2">
         <v>1.12E-2</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="3">
         <v>9.6027000000000005</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="1">
         <v>542228.71010000003</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="1">
         <v>62036.271000000001</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="1">
         <v>41313.084300000002</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="4">
         <v>0.5</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="1">
         <v>112930.5135</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="1">
         <v>187961</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="3">
         <v>4.5392000000000001</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="1">
         <v>93981.773199999996</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="1">
         <v>12.9093</v>
       </c>
-      <c r="O28" s="10">
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
         <v>0.99790000000000001</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="2">
         <v>1.55E-2</v>
       </c>
-      <c r="R28" s="9">
+      <c r="R28" s="1">
         <v>1084445</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="2">
         <v>0.99170000000000003</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="3">
         <v>3.5103</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="1">
         <v>108633.514</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="1">
         <v>4363.7284</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="1">
         <v>4010.5617000000002</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="4">
         <v>1.0315000000000001</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="1">
         <v>30000</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="1">
         <v>27449</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="3">
         <v>6.8407999999999998</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="1">
         <v>28314.761299999998</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="1">
         <v>9.0328999999999997</v>
       </c>
-      <c r="O29" s="10">
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
         <v>1</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="2">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R29" s="1">
         <v>105311</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="2">
         <v>0.93710000000000004</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="2">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="3">
         <v>6.3243999999999998</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="1">
         <v>9353.2401000000009</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="1">
         <v>1921.1624999999999</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="1">
         <v>89.497</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="4">
         <v>3.8610000000000002</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="1">
         <v>383.02749999999997</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="1">
         <v>497</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="3">
         <v>5.5315000000000003</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="1">
         <v>1918.6342999999999</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="1">
         <v>13.1227</v>
       </c>
-      <c r="O30" s="10">
-        <v>0</v>
-      </c>
-      <c r="P30" s="10">
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
         <v>0.97409999999999997</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="2">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="R30" s="9">
+      <c r="R30" s="1">
         <v>2422</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="1">
         <v>2</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="2">
         <v>0.93540000000000001</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="2">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="3">
         <v>4.3807</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="1">
         <v>8639.0226999999995</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="1">
         <v>1340.7746</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="1">
         <v>170.47489999999999</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="4">
         <v>1.9211</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="1">
         <v>1026.49</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="1">
         <v>899</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="3">
         <v>5.2702999999999998</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="1">
         <v>1727.5316</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="1">
         <v>16.5304</v>
       </c>
-      <c r="O31" s="10">
-        <v>0</v>
-      </c>
-      <c r="P31" s="10">
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
         <v>0.96220000000000006</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="2">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="R31" s="9">
+      <c r="R31" s="1">
         <v>4497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2.58E-2</v>
+      </c>
+      <c r="E32" s="11">
+        <v>3.3653</v>
+      </c>
+      <c r="F32" s="9">
+        <v>108158.04580000001</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5986.9233000000004</v>
+      </c>
+      <c r="H32" s="9">
+        <v>152216.25750000001</v>
+      </c>
+      <c r="I32" s="12">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1200000</v>
+      </c>
+      <c r="K32" s="9">
+        <v>808839</v>
+      </c>
+      <c r="L32" s="11">
+        <v>5.2945000000000002</v>
+      </c>
+      <c r="M32" s="9">
+        <v>21662.722900000001</v>
+      </c>
+      <c r="N32" s="9">
+        <v>7.8971999999999998</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>-8.3999999999999995E-3</v>
+      </c>
+      <c r="R32" s="9">
+        <v>4038384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="D33" s="10">
+        <v>3.27E-2</v>
+      </c>
+      <c r="E33" s="11">
+        <v>5.4541000000000004</v>
+      </c>
+      <c r="F33" s="9">
+        <v>317893.59169999999</v>
+      </c>
+      <c r="G33" s="9">
+        <v>143370.7205</v>
+      </c>
+      <c r="H33" s="9">
+        <v>229534.96090000001</v>
+      </c>
+      <c r="I33" s="12">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1134689.3617</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1041267</v>
+      </c>
+      <c r="L33" s="11">
+        <v>4.5052000000000003</v>
+      </c>
+      <c r="M33" s="9">
+        <v>53486.087500000001</v>
+      </c>
+      <c r="N33" s="9">
+        <v>7.8426</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="R33" s="9">
+        <v>6188754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2.23E-2</v>
+      </c>
+      <c r="E34" s="11">
+        <v>11.720499999999999</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2615561.5304999999</v>
+      </c>
+      <c r="G34" s="9">
+        <v>292447.54710000003</v>
+      </c>
+      <c r="H34" s="9">
+        <v>197248.899</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.4985</v>
+      </c>
+      <c r="J34" s="9">
+        <v>447623.7623</v>
+      </c>
+      <c r="K34" s="9">
+        <v>1132585</v>
+      </c>
+      <c r="L34" s="11">
+        <v>5.7229000000000001</v>
+      </c>
+      <c r="M34" s="9">
+        <v>564641.38740000001</v>
+      </c>
+      <c r="N34" s="9">
+        <v>14.1732</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>-0.33750000000000002</v>
+      </c>
+      <c r="R34" s="9">
+        <v>5246418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="9">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="D35" s="10">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E35" s="11">
+        <v>5.5701000000000001</v>
+      </c>
+      <c r="F35" s="9">
+        <v>109424.3125</v>
+      </c>
+      <c r="G35" s="9">
+        <v>5435.2582000000002</v>
+      </c>
+      <c r="H35" s="9">
+        <v>3901.9769000000001</v>
+      </c>
+      <c r="I35" s="12">
+        <v>1.0450999999999999</v>
+      </c>
+      <c r="J35" s="9">
+        <v>18796.875</v>
+      </c>
+      <c r="K35" s="9">
+        <v>18264</v>
+      </c>
+      <c r="L35" s="11">
+        <v>4.6718999999999999</v>
+      </c>
+      <c r="M35" s="9">
+        <v>19087.562300000001</v>
+      </c>
+      <c r="N35" s="9">
+        <v>7.9446000000000003</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>2.01E-2</v>
+      </c>
+      <c r="R35" s="9">
+        <v>104702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="9">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="D36" s="10">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="E36" s="11">
+        <v>4.7287999999999997</v>
+      </c>
+      <c r="F36" s="9">
+        <v>9021.8284999999996</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1634.2543000000001</v>
+      </c>
+      <c r="H36" s="9">
+        <v>89.258799999999994</v>
+      </c>
+      <c r="I36" s="12">
+        <v>3.7465999999999999</v>
+      </c>
+      <c r="J36" s="9">
+        <v>509.20240000000001</v>
+      </c>
+      <c r="K36" s="9">
+        <v>658</v>
+      </c>
+      <c r="L36" s="11">
+        <v>7.3849999999999998</v>
+      </c>
+      <c r="M36" s="9">
+        <v>2463.6324</v>
+      </c>
+      <c r="N36" s="9">
+        <v>14.9773</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>-2.86E-2</v>
+      </c>
+      <c r="R36" s="9">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="9">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E37" s="11">
+        <v>6.4695</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2128086.7088000001</v>
+      </c>
+      <c r="G37" s="9">
+        <v>25545.5154</v>
+      </c>
+      <c r="H37" s="9">
+        <v>2660715.0545999999</v>
+      </c>
+      <c r="I37" s="12">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="J37" s="9">
+        <v>10828699.5515</v>
+      </c>
+      <c r="K37" s="9">
+        <v>10803447</v>
+      </c>
+      <c r="L37" s="11">
+        <v>4.0449000000000002</v>
+      </c>
+      <c r="M37" s="9">
+        <v>328172.42580000003</v>
+      </c>
+      <c r="N37" s="9">
+        <v>8.4048999999999996</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>-0.41210000000000002</v>
+      </c>
+      <c r="R37" s="9">
+        <v>70056684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="9">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="11">
+        <v>5.1349999999999998</v>
+      </c>
+      <c r="F38" s="9">
+        <v>50149.654799999997</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2695.0129999999999</v>
+      </c>
+      <c r="H38" s="9">
+        <v>198497.1825</v>
+      </c>
+      <c r="I38" s="12">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1015536.7230999999</v>
+      </c>
+      <c r="K38" s="9">
+        <v>817333</v>
+      </c>
+      <c r="L38" s="11">
+        <v>4.1059000000000001</v>
+      </c>
+      <c r="M38" s="9">
+        <v>7860.13</v>
+      </c>
+      <c r="N38" s="9">
+        <v>7.3465999999999996</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>-0.42880000000000001</v>
+      </c>
+      <c r="R38" s="9">
+        <v>5214796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="9">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1.61E-2</v>
+      </c>
+      <c r="E39" s="11">
+        <v>3.7713999999999999</v>
+      </c>
+      <c r="F39" s="9">
+        <v>80462.4519</v>
+      </c>
+      <c r="G39" s="9">
+        <v>4701.9273999999996</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1772.9603</v>
+      </c>
+      <c r="I39" s="12">
+        <v>1.7237</v>
+      </c>
+      <c r="J39" s="9">
+        <v>12376.923000000001</v>
+      </c>
+      <c r="K39" s="9">
+        <v>15585</v>
+      </c>
+      <c r="L39" s="11">
+        <v>8.8050999999999995</v>
+      </c>
+      <c r="M39" s="9">
+        <v>26864.8524</v>
+      </c>
+      <c r="N39" s="9">
+        <v>20.1187</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>-0.46410000000000001</v>
+      </c>
+      <c r="R39" s="9">
+        <v>46679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="9">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="D40" s="10">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E40" s="11">
+        <v>6.3533999999999997</v>
+      </c>
+      <c r="F40" s="9">
+        <v>411602.29100000003</v>
+      </c>
+      <c r="G40" s="9">
+        <v>6122.1544000000004</v>
+      </c>
+      <c r="H40" s="9">
+        <v>515239.86609999998</v>
+      </c>
+      <c r="I40" s="12">
+        <v>3.04E-2</v>
+      </c>
+      <c r="J40" s="9">
+        <v>2126484.0181999998</v>
+      </c>
+      <c r="K40" s="9">
+        <v>2101065</v>
+      </c>
+      <c r="L40" s="11">
+        <v>4.0868000000000002</v>
+      </c>
+      <c r="M40" s="9">
+        <v>64009.229099999997</v>
+      </c>
+      <c r="N40" s="9">
+        <v>8.4464000000000006</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>-0.51580000000000004</v>
+      </c>
+      <c r="R40" s="9">
+        <v>13510600</v>
       </c>
     </row>
   </sheetData>
@@ -2624,10 +3153,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4483,452 +5012,1202 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="1">
         <v>2</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="1">
         <v>31194.108400000001</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="1">
         <v>7646.3582999999999</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="2">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="6">
         <v>0.24512187520000001</v>
       </c>
-      <c r="I38" s="44">
+      <c r="I38" s="1">
         <v>3355.8996999999999</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="6">
         <v>0.10758120390000001</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K38" s="2">
         <v>0.86250000000000004</v>
       </c>
-      <c r="L38" s="45">
+      <c r="L38" s="2">
         <v>0.95150000000000001</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M38" s="2">
         <v>0.93730000000000002</v>
       </c>
-      <c r="N38" s="45">
+      <c r="N38" s="2">
         <v>0.96199999999999997</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="6">
         <v>1.4944</v>
       </c>
-      <c r="P38" s="45">
+      <c r="P38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="1">
         <v>86240.124899999995</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="1">
         <v>38050.813999999998</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="2">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="6">
         <v>0.4412193754</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="1">
         <v>18002.971799999999</v>
       </c>
-      <c r="J39" s="46">
+      <c r="J39" s="6">
         <v>0.20875400869999999</v>
       </c>
-      <c r="K39" s="45">
+      <c r="K39" s="2">
         <v>0.87570000000000003</v>
       </c>
-      <c r="L39" s="45">
+      <c r="L39" s="2">
         <v>0.93300000000000005</v>
       </c>
-      <c r="M39" s="45">
+      <c r="M39" s="2">
         <v>0.92620000000000002</v>
       </c>
-      <c r="N39" s="45">
+      <c r="N39" s="2">
         <v>0.87749999999999995</v>
       </c>
-      <c r="O39" s="46">
+      <c r="O39" s="6">
         <v>1.0301</v>
       </c>
-      <c r="P39" s="45">
+      <c r="P39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="1">
         <v>2</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="1">
         <v>53829.2791</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="1">
         <v>25333.888999999999</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="2">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="6">
         <v>0.47063400039999997</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="1">
         <v>11081.8406</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="6">
         <v>0.20587012930000001</v>
       </c>
-      <c r="K40" s="45">
+      <c r="K40" s="2">
         <v>0.88009999999999999</v>
       </c>
-      <c r="L40" s="45">
+      <c r="L40" s="2">
         <v>0.94310000000000005</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M40" s="2">
         <v>0.92620000000000002</v>
       </c>
-      <c r="N40" s="45">
+      <c r="N40" s="2">
         <v>0.90610000000000002</v>
       </c>
-      <c r="O40" s="46">
+      <c r="O40" s="6">
         <v>1.0436000000000001</v>
       </c>
-      <c r="P40" s="45">
+      <c r="P40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="1">
         <v>2</v>
       </c>
-      <c r="E41" s="44">
+      <c r="E41" s="1">
         <v>10765.454100000001</v>
       </c>
-      <c r="F41" s="44">
+      <c r="F41" s="1">
         <v>3377.7258000000002</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="2">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="6">
         <v>0.3137560003</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="1">
         <v>1553.3130000000001</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="6">
         <v>0.14428681260000001</v>
       </c>
-      <c r="K41" s="45">
+      <c r="K41" s="2">
         <v>0.85519999999999996</v>
       </c>
-      <c r="L41" s="45">
+      <c r="L41" s="2">
         <v>0.95660000000000001</v>
       </c>
-      <c r="M41" s="45">
+      <c r="M41" s="2">
         <v>0.95109999999999995</v>
       </c>
-      <c r="N41" s="45">
+      <c r="N41" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="6">
         <v>1.9781</v>
       </c>
-      <c r="P41" s="45">
+      <c r="P41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="1">
         <v>2</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E42" s="1">
         <v>23126.498500000002</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="1">
         <v>4857.5718999999999</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="2">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="6">
         <v>0.2100435538</v>
       </c>
-      <c r="I42" s="44">
+      <c r="I42" s="1">
         <v>2205.7574</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="6">
         <v>9.5377926299999999E-2</v>
       </c>
-      <c r="K42" s="45">
+      <c r="K42" s="2">
         <v>0.83389999999999997</v>
       </c>
-      <c r="L42" s="45">
+      <c r="L42" s="2">
         <v>0.97089999999999999</v>
       </c>
-      <c r="M42" s="45">
+      <c r="M42" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N42" s="45">
+      <c r="N42" s="2">
         <v>0.95630000000000004</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="6">
         <v>1.1882999999999999</v>
       </c>
-      <c r="P42" s="45">
+      <c r="P42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="44">
+      <c r="D43" s="1">
         <v>2</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="1">
         <v>9995.4830999999995</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="1">
         <v>2385.7804000000001</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="2">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="6">
         <v>0.2386858566</v>
       </c>
-      <c r="I43" s="44">
+      <c r="I43" s="1">
         <v>1010.9949</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="6">
         <v>0.1011451853</v>
       </c>
-      <c r="K43" s="45">
+      <c r="K43" s="2">
         <v>0.82789999999999997</v>
       </c>
-      <c r="L43" s="45">
+      <c r="L43" s="2">
         <v>0.97199999999999998</v>
       </c>
-      <c r="M43" s="45">
+      <c r="M43" s="2">
         <v>0.97050000000000003</v>
       </c>
-      <c r="N43" s="45">
+      <c r="N43" s="2">
         <v>0.98099999999999998</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="6">
         <v>1.4441999999999999</v>
       </c>
-      <c r="P43" s="45">
+      <c r="P43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="44">
+      <c r="D44" s="1">
         <v>2</v>
       </c>
-      <c r="E44" s="44">
+      <c r="E44" s="1">
         <v>8010.4328999999998</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="1">
         <v>4206.3495000000003</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="2">
         <v>6.3E-3</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="6">
         <v>0.52510888460000005</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I44" s="1">
         <v>1425.9042999999999</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="6">
         <v>0.1780059011</v>
       </c>
-      <c r="K44" s="45">
+      <c r="K44" s="2">
         <v>0.82210000000000005</v>
       </c>
-      <c r="L44" s="45">
+      <c r="L44" s="2">
         <v>0.96689999999999998</v>
       </c>
-      <c r="M44" s="45">
+      <c r="M44" s="2">
         <v>0.9637</v>
       </c>
-      <c r="N44" s="45">
+      <c r="N44" s="2">
         <v>0.94930000000000003</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="6">
         <v>1.2636000000000001</v>
       </c>
-      <c r="P44" s="45">
+      <c r="P44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="1">
         <v>2</v>
       </c>
-      <c r="E45" s="44">
+      <c r="E45" s="1">
         <v>3490.4708000000001</v>
       </c>
-      <c r="F45" s="44">
+      <c r="F45" s="1">
         <v>1066.4013</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="2">
         <v>6.6E-3</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="6">
         <v>0.30551789639999999</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="1">
         <v>474.87400000000002</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="6">
         <v>0.1360487088</v>
       </c>
-      <c r="K45" s="45">
+      <c r="K45" s="2">
         <v>0.81850000000000001</v>
       </c>
-      <c r="L45" s="45">
+      <c r="L45" s="2">
         <v>0.94979999999999998</v>
       </c>
-      <c r="M45" s="45">
+      <c r="M45" s="2">
         <v>0.94979999999999998</v>
       </c>
-      <c r="N45" s="45">
+      <c r="N45" s="2">
         <v>0.98470000000000002</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="6">
         <v>1.9278999999999999</v>
       </c>
-      <c r="P45" s="45">
+      <c r="P45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="1">
         <v>2</v>
       </c>
-      <c r="E46" s="44">
+      <c r="E46" s="1">
         <v>140556.3401</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F46" s="1">
         <v>30999.8174</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="2">
         <v>1.72E-2</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="6">
         <v>0.22055082970000001</v>
       </c>
-      <c r="I46" s="44">
+      <c r="I46" s="1">
         <v>14882.836499999999</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="6">
         <v>0.1058852022</v>
       </c>
-      <c r="K46" s="45">
+      <c r="K46" s="2">
         <v>0.85640000000000005</v>
       </c>
-      <c r="L46" s="45">
+      <c r="L46" s="2">
         <v>0.97819999999999996</v>
       </c>
-      <c r="M46" s="45">
+      <c r="M46" s="2">
         <v>0.97270000000000001</v>
       </c>
-      <c r="N46" s="45">
+      <c r="N46" s="2">
         <v>0.98</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="6">
         <v>1.1908000000000001</v>
       </c>
-      <c r="P46" s="45">
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="41">
+        <v>3</v>
+      </c>
+      <c r="E47" s="41">
+        <v>147613.67439999999</v>
+      </c>
+      <c r="F47" s="41">
+        <v>234853.3559</v>
+      </c>
+      <c r="G47" s="42">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="H47" s="45">
+        <v>1.591</v>
+      </c>
+      <c r="I47" s="41">
+        <v>83517.462199999994</v>
+      </c>
+      <c r="J47" s="45">
+        <v>0.56578404800000004</v>
+      </c>
+      <c r="K47" s="42">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="L47" s="42">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="M47" s="42">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="N47" s="42">
+        <v>1</v>
+      </c>
+      <c r="O47" s="45">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="P47" s="42">
+        <v>-9.3600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="41">
+        <v>3</v>
+      </c>
+      <c r="E48" s="41">
+        <v>28223.728999999999</v>
+      </c>
+      <c r="F48" s="41">
+        <v>50125.342799999999</v>
+      </c>
+      <c r="G48" s="42">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="H48" s="45">
+        <v>1.776</v>
+      </c>
+      <c r="I48" s="41">
+        <v>18833.014500000001</v>
+      </c>
+      <c r="J48" s="45">
+        <v>0.66727591109999995</v>
+      </c>
+      <c r="K48" s="42">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="L48" s="42">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="M48" s="42">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="N48" s="42">
+        <v>1</v>
+      </c>
+      <c r="O48" s="45">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="P48" s="42">
+        <v>-0.13819999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="41">
+        <v>3</v>
+      </c>
+      <c r="E49" s="41">
+        <v>30731.354599999999</v>
+      </c>
+      <c r="F49" s="41">
+        <v>5956.5286999999998</v>
+      </c>
+      <c r="G49" s="42">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="H49" s="45">
+        <v>0.19382578049999999</v>
+      </c>
+      <c r="I49" s="41">
+        <v>1580.0718999999999</v>
+      </c>
+      <c r="J49" s="45">
+        <v>5.14156302E-2</v>
+      </c>
+      <c r="K49" s="42">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="L49" s="42">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="M49" s="42">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="N49" s="42">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="O49" s="45">
+        <v>1.5871999999999999</v>
+      </c>
+      <c r="P49" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="41">
+        <v>3</v>
+      </c>
+      <c r="E50" s="41">
+        <v>8630.4395999999997</v>
+      </c>
+      <c r="F50" s="41">
+        <v>11441.963599999999</v>
+      </c>
+      <c r="G50" s="42">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="H50" s="45">
+        <v>1.3257683386000001</v>
+      </c>
+      <c r="I50" s="41">
+        <v>2593.8991999999998</v>
+      </c>
+      <c r="J50" s="45">
+        <v>0.30055238670000001</v>
+      </c>
+      <c r="K50" s="42">
+        <v>0.82179999999999997</v>
+      </c>
+      <c r="L50" s="42">
+        <v>0.8589</v>
+      </c>
+      <c r="M50" s="42">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="N50" s="42">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="O50" s="45">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="P50" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="41">
+        <v>3</v>
+      </c>
+      <c r="E51" s="41">
+        <v>87010.042400000006</v>
+      </c>
+      <c r="F51" s="41">
+        <v>30356.620800000001</v>
+      </c>
+      <c r="G51" s="42">
+        <v>3.49E-2</v>
+      </c>
+      <c r="H51" s="45">
+        <v>0.3488864049</v>
+      </c>
+      <c r="I51" s="41">
+        <v>11289.0589</v>
+      </c>
+      <c r="J51" s="45">
+        <v>0.12974432159999999</v>
+      </c>
+      <c r="K51" s="42">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="L51" s="42">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="M51" s="42">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="N51" s="42">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="O51" s="45">
+        <v>0.9254</v>
+      </c>
+      <c r="P51" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="41">
+        <v>3</v>
+      </c>
+      <c r="E52" s="41">
+        <v>54010.711799999997</v>
+      </c>
+      <c r="F52" s="41">
+        <v>20099.8433</v>
+      </c>
+      <c r="G52" s="42">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="H52" s="45">
+        <v>0.3721454985</v>
+      </c>
+      <c r="I52" s="41">
+        <v>6407.4479000000001</v>
+      </c>
+      <c r="J52" s="45">
+        <v>0.1186329097</v>
+      </c>
+      <c r="K52" s="42">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="L52" s="42">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="M52" s="42">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="N52" s="42">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="O52" s="45">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P52" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="41">
+        <v>3</v>
+      </c>
+      <c r="E53" s="41">
+        <v>1718.5896</v>
+      </c>
+      <c r="F53" s="41">
+        <v>2504.9643999999998</v>
+      </c>
+      <c r="G53" s="42">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="H53" s="45">
+        <v>1.4575698694000001</v>
+      </c>
+      <c r="I53" s="41">
+        <v>599.52269999999999</v>
+      </c>
+      <c r="J53" s="45">
+        <v>0.34884578049999998</v>
+      </c>
+      <c r="K53" s="42">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="L53" s="42">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="M53" s="42">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="N53" s="42">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="O53" s="45">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="P53" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="41">
+        <v>3</v>
+      </c>
+      <c r="E54" s="41">
+        <v>10877.929</v>
+      </c>
+      <c r="F54" s="41">
+        <v>2698.7815000000001</v>
+      </c>
+      <c r="G54" s="42">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="H54" s="45">
+        <v>0.24809699900000001</v>
+      </c>
+      <c r="I54" s="41">
+        <v>958.10940000000005</v>
+      </c>
+      <c r="J54" s="45">
+        <v>8.8078293299999999E-2</v>
+      </c>
+      <c r="K54" s="42">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="L54" s="42">
+        <v>0.9486</v>
+      </c>
+      <c r="M54" s="42">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="N54" s="42">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="O54" s="45">
+        <v>1.8202</v>
+      </c>
+      <c r="P54" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="41">
+        <v>3</v>
+      </c>
+      <c r="E55" s="41">
+        <v>23219.1564</v>
+      </c>
+      <c r="F55" s="41">
+        <v>4801.8708999999999</v>
+      </c>
+      <c r="G55" s="42">
+        <v>1.55E-2</v>
+      </c>
+      <c r="H55" s="45">
+        <v>0.20680643269999999</v>
+      </c>
+      <c r="I55" s="41">
+        <v>2156.3798999999999</v>
+      </c>
+      <c r="J55" s="45">
+        <v>9.2870728099999994E-2</v>
+      </c>
+      <c r="K55" s="42">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="L55" s="42">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="M55" s="42">
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="N55" s="42">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="O55" s="45">
+        <v>1.1811</v>
+      </c>
+      <c r="P55" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="41">
+        <v>3</v>
+      </c>
+      <c r="E56" s="41">
+        <v>10154.1263</v>
+      </c>
+      <c r="F56" s="41">
+        <v>2386.2939000000001</v>
+      </c>
+      <c r="G56" s="42">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H56" s="45">
+        <v>0.23500730989999999</v>
+      </c>
+      <c r="I56" s="41">
+        <v>940.2432</v>
+      </c>
+      <c r="J56" s="45">
+        <v>9.2597159600000006E-2</v>
+      </c>
+      <c r="K56" s="42">
+        <v>0.82479999999999998</v>
+      </c>
+      <c r="L56" s="42">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="M56" s="42">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="N56" s="42">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="O56" s="45">
+        <v>1.536</v>
+      </c>
+      <c r="P56" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="41">
+        <v>3</v>
+      </c>
+      <c r="E57" s="41">
+        <v>5357.6880000000001</v>
+      </c>
+      <c r="F57" s="41">
+        <v>8612.2155999999995</v>
+      </c>
+      <c r="G57" s="42">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="H57" s="45">
+        <v>1.6074499998</v>
+      </c>
+      <c r="I57" s="41">
+        <v>3119.4283</v>
+      </c>
+      <c r="J57" s="45">
+        <v>0.5822340479</v>
+      </c>
+      <c r="K57" s="42">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="L57" s="42">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="M57" s="42">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="N57" s="42">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="O57" s="45">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="P57" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="41">
+        <v>3</v>
+      </c>
+      <c r="E58" s="41">
+        <v>8236.2641999999996</v>
+      </c>
+      <c r="F58" s="41">
+        <v>4258.2809999999999</v>
+      </c>
+      <c r="G58" s="42">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="H58" s="45">
+        <v>0.51701608180000003</v>
+      </c>
+      <c r="I58" s="41">
+        <v>1438.6948</v>
+      </c>
+      <c r="J58" s="45">
+        <v>0.17467808269999999</v>
+      </c>
+      <c r="K58" s="42">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="L58" s="42">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="M58" s="42">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="N58" s="42">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="O58" s="45">
+        <v>1.2183999999999999</v>
+      </c>
+      <c r="P58" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="41">
+        <v>3</v>
+      </c>
+      <c r="E59" s="41">
+        <v>1042.1222</v>
+      </c>
+      <c r="F59" s="41">
+        <v>1841.6958</v>
+      </c>
+      <c r="G59" s="42">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="H59" s="45">
+        <v>1.7672549706</v>
+      </c>
+      <c r="I59" s="41">
+        <v>686.26969999999994</v>
+      </c>
+      <c r="J59" s="45">
+        <v>0.65853088169999996</v>
+      </c>
+      <c r="K59" s="42">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="L59" s="42">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="M59" s="42">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="N59" s="42">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="O59" s="45">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="P59" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="41">
+        <v>3</v>
+      </c>
+      <c r="E60" s="41">
+        <v>3527.1590999999999</v>
+      </c>
+      <c r="F60" s="41">
+        <v>1061.0024000000001</v>
+      </c>
+      <c r="G60" s="42">
+        <v>1.83E-2</v>
+      </c>
+      <c r="H60" s="45">
+        <v>0.30080935669999997</v>
+      </c>
+      <c r="I60" s="41">
+        <v>496.59100000000001</v>
+      </c>
+      <c r="J60" s="45">
+        <v>0.14079065090000001</v>
+      </c>
+      <c r="K60" s="42">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="L60" s="42">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="M60" s="42">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="N60" s="42">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O60" s="45">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="P60" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="41">
+        <v>3</v>
+      </c>
+      <c r="E61" s="41">
+        <v>140711.8768</v>
+      </c>
+      <c r="F61" s="41">
+        <v>31114.323799999998</v>
+      </c>
+      <c r="G61" s="42">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="H61" s="45">
+        <v>0.22112080780000001</v>
+      </c>
+      <c r="I61" s="41">
+        <v>15082.217000000001</v>
+      </c>
+      <c r="J61" s="45">
+        <v>0.10718510320000001</v>
+      </c>
+      <c r="K61" s="42">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="L61" s="42">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="M61" s="42">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="N61" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="O61" s="45">
+        <v>1.1828000000000001</v>
+      </c>
+      <c r="P61" s="42">
         <v>0</v>
       </c>
     </row>
@@ -4939,10 +6218,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,29 +6357,55 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="1">
         <v>216401.2028</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="2">
         <v>0.9899</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="1">
         <v>708.529</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="1">
         <v>266.29680000000002</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="1">
         <v>7481.1517000000003</v>
       </c>
-      <c r="H6" s="47">
-        <v>0</v>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="41">
+        <v>3</v>
+      </c>
+      <c r="C7" s="41">
+        <v>3496115.1033999999</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.9899</v>
+      </c>
+      <c r="E7" s="41">
+        <v>870.44860000000006</v>
+      </c>
+      <c r="F7" s="41">
+        <v>442.029</v>
+      </c>
+      <c r="G7" s="41">
+        <v>7927.8235999999997</v>
+      </c>
+      <c r="H7" s="41">
+        <v>914598.25659999996</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +6415,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7044,465 +8349,1081 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="1">
         <v>163682.83859999999</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="1">
         <v>35857.389300000003</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="5">
         <v>0.21906627270000001</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="5">
         <v>0.1044006452</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="1">
         <v>17088.5939</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="2">
         <v>0.97709999999999997</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="2">
         <v>0.97430000000000005</v>
       </c>
-      <c r="K26" s="50">
+      <c r="K26" s="2">
         <v>0.97660000000000002</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="3">
         <v>4.6619000000000002</v>
       </c>
-      <c r="M26" s="50">
+      <c r="M26" s="2">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="N26" s="49">
+      <c r="N26" s="1">
         <v>293.52800000000002</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="3">
         <v>3.1735000000000002</v>
       </c>
-      <c r="P26" s="51">
+      <c r="P26" s="3">
         <v>59564.473100000003</v>
       </c>
-      <c r="Q26" s="49">
+      <c r="Q26" s="1">
         <v>6.8589000000000002</v>
       </c>
-      <c r="R26" s="50">
+      <c r="R26" s="2">
         <v>0.60640000000000005</v>
       </c>
-      <c r="S26" s="50">
+      <c r="S26" s="2">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="T26" s="49">
+      <c r="T26" s="1">
         <v>24.311499999999999</v>
       </c>
-      <c r="U26" s="49">
+      <c r="U26" s="1">
         <v>3168.683</v>
       </c>
-      <c r="V26" s="50">
+      <c r="V26" s="2">
         <v>0.94299999999999995</v>
       </c>
-      <c r="W26" s="49">
+      <c r="W26" s="1">
         <v>1039.9449</v>
       </c>
-      <c r="X26" s="53">
+      <c r="X26" s="6">
         <v>1.1904999999999999</v>
       </c>
-      <c r="Y26" s="49">
+      <c r="Y26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="1">
         <v>41189.5916</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="1">
         <v>10032.138800000001</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="5">
         <v>0.24356004580000001</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="5">
         <v>0.1060193745</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="1">
         <v>4366.8946999999998</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="2">
         <v>0.95650000000000002</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="2">
         <v>0.96050000000000002</v>
       </c>
-      <c r="K27" s="50">
+      <c r="K27" s="2">
         <v>0.96660000000000001</v>
       </c>
-      <c r="L27" s="51">
+      <c r="L27" s="3">
         <v>2.9714</v>
       </c>
-      <c r="M27" s="50">
+      <c r="M27" s="2">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="N27" s="49">
+      <c r="N27" s="1">
         <v>477.18270000000001</v>
       </c>
-      <c r="O27" s="51">
+      <c r="O27" s="3">
         <v>3.5013999999999998</v>
       </c>
-      <c r="P27" s="51">
+      <c r="P27" s="3">
         <v>19836.359799999998</v>
       </c>
-      <c r="Q27" s="49">
+      <c r="Q27" s="1">
         <v>7.3339999999999996</v>
       </c>
-      <c r="R27" s="50">
+      <c r="R27" s="2">
         <v>0.63260000000000005</v>
       </c>
-      <c r="S27" s="50">
+      <c r="S27" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="T27" s="49">
+      <c r="T27" s="1">
         <v>15.056900000000001</v>
       </c>
-      <c r="U27" s="49">
+      <c r="U27" s="1">
         <v>2358.5007000000001</v>
       </c>
-      <c r="V27" s="50">
+      <c r="V27" s="2">
         <v>0.94299999999999995</v>
       </c>
-      <c r="W27" s="49">
+      <c r="W27" s="1">
         <v>1065.6419000000001</v>
       </c>
-      <c r="X27" s="53">
+      <c r="X27" s="6">
         <v>1.4823</v>
       </c>
-      <c r="Y27" s="49">
+      <c r="Y27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="1">
         <v>86240.124899999995</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="1">
         <v>38050.813999999998</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="5">
         <v>0.4412193754</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="5">
         <v>0.20875400869999999</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="1">
         <v>18002.971799999999</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="2">
         <v>0.93300000000000005</v>
       </c>
-      <c r="J28" s="50">
+      <c r="J28" s="2">
         <v>0.92620000000000002</v>
       </c>
-      <c r="K28" s="50">
+      <c r="K28" s="2">
         <v>0.87749999999999995</v>
       </c>
-      <c r="L28" s="51">
+      <c r="L28" s="3">
         <v>1.7104999999999999</v>
       </c>
-      <c r="M28" s="50">
+      <c r="M28" s="2">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="N28" s="49">
+      <c r="N28" s="1">
         <v>1395.9970000000001</v>
       </c>
-      <c r="O28" s="51">
+      <c r="O28" s="3">
         <v>2.9512999999999998</v>
       </c>
-      <c r="P28" s="51">
+      <c r="P28" s="3">
         <v>59168.541400000002</v>
       </c>
-      <c r="Q28" s="49">
+      <c r="Q28" s="1">
         <v>6.6936999999999998</v>
       </c>
-      <c r="R28" s="50">
+      <c r="R28" s="2">
         <v>0.66700000000000004</v>
       </c>
-      <c r="S28" s="50">
+      <c r="S28" s="2">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="T28" s="49">
+      <c r="T28" s="1">
         <v>20.423999999999999</v>
       </c>
-      <c r="U28" s="49">
+      <c r="U28" s="1">
         <v>1619.0255</v>
       </c>
-      <c r="V28" s="50">
+      <c r="V28" s="2">
         <v>0.94540000000000002</v>
       </c>
-      <c r="W28" s="49">
+      <c r="W28" s="1">
         <v>835.29750000000001</v>
       </c>
-      <c r="X28" s="53">
+      <c r="X28" s="6">
         <v>1.0301</v>
       </c>
-      <c r="Y28" s="49">
+      <c r="Y28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="1">
         <v>2</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="1">
         <v>53829.2791</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="1">
         <v>25333.888999999999</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="5">
         <v>0.47063400039999997</v>
       </c>
-      <c r="G29" s="52">
+      <c r="G29" s="5">
         <v>0.20587012930000001</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="1">
         <v>11081.8406</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="2">
         <v>0.94310000000000005</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="2">
         <v>0.92620000000000002</v>
       </c>
-      <c r="K29" s="50">
+      <c r="K29" s="2">
         <v>0.90610000000000002</v>
       </c>
-      <c r="L29" s="51">
+      <c r="L29" s="3">
         <v>1.7094</v>
       </c>
-      <c r="M29" s="50">
+      <c r="M29" s="2">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="N29" s="49">
+      <c r="N29" s="1">
         <v>931.05529999999999</v>
       </c>
-      <c r="O29" s="51">
+      <c r="O29" s="3">
         <v>2.8612000000000002</v>
       </c>
-      <c r="P29" s="51">
+      <c r="P29" s="3">
         <v>40778.675199999998</v>
       </c>
-      <c r="Q29" s="49">
+      <c r="Q29" s="1">
         <v>6.6204000000000001</v>
       </c>
-      <c r="R29" s="50">
+      <c r="R29" s="2">
         <v>0.65810000000000002</v>
       </c>
-      <c r="S29" s="50">
+      <c r="S29" s="2">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="T29" s="49">
+      <c r="T29" s="1">
         <v>19.698699999999999</v>
       </c>
-      <c r="U29" s="49">
+      <c r="U29" s="1">
         <v>1786.3471999999999</v>
       </c>
-      <c r="V29" s="50">
+      <c r="V29" s="2">
         <v>0.94540000000000002</v>
       </c>
-      <c r="W29" s="49">
+      <c r="W29" s="1">
         <v>827.73599999999999</v>
       </c>
-      <c r="X29" s="53">
+      <c r="X29" s="6">
         <v>1.0436000000000001</v>
       </c>
-      <c r="Y29" s="49">
+      <c r="Y29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="1">
         <v>8010.4328999999998</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="1">
         <v>4206.3495000000003</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="5">
         <v>0.52510888460000005</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="5">
         <v>0.1780059011</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="1">
         <v>1425.9042999999999</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30" s="2">
         <v>0.96689999999999998</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30" s="2">
         <v>0.9637</v>
       </c>
-      <c r="K30" s="50">
+      <c r="K30" s="2">
         <v>0.94930000000000003</v>
       </c>
-      <c r="L30" s="51">
+      <c r="L30" s="3">
         <v>3.4188000000000001</v>
       </c>
-      <c r="M30" s="50">
+      <c r="M30" s="2">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="N30" s="49">
+      <c r="N30" s="1">
         <v>223.56800000000001</v>
       </c>
-      <c r="O30" s="51">
+      <c r="O30" s="3">
         <v>4.1224999999999996</v>
       </c>
-      <c r="P30" s="51">
+      <c r="P30" s="3">
         <v>11462.5396</v>
       </c>
-      <c r="Q30" s="49">
+      <c r="Q30" s="1">
         <v>8.1187000000000005</v>
       </c>
-      <c r="R30" s="50">
+      <c r="R30" s="2">
         <v>0.61709999999999998</v>
       </c>
-      <c r="S30" s="50">
+      <c r="S30" s="2">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="T30" s="49">
+      <c r="T30" s="1">
         <v>12.997</v>
       </c>
-      <c r="U30" s="49">
+      <c r="U30" s="1">
         <v>1538.3641</v>
       </c>
-      <c r="V30" s="50">
+      <c r="V30" s="2">
         <v>0.92159999999999997</v>
       </c>
-      <c r="W30" s="49">
+      <c r="W30" s="1">
         <v>743.26310000000001</v>
       </c>
-      <c r="X30" s="53">
+      <c r="X30" s="6">
         <v>1.2636000000000001</v>
       </c>
-      <c r="Y30" s="49">
+      <c r="Y30" s="1">
         <v>1208.3924</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="1">
         <v>2</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="1">
         <v>14255.924999999999</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="1">
         <v>4444.1270999999997</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="5">
         <v>0.3117389539</v>
       </c>
-      <c r="G31" s="52">
+      <c r="G31" s="5">
         <v>0.14226976629999999</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="1">
         <v>2028.1871000000001</v>
       </c>
-      <c r="I31" s="50">
+      <c r="I31" s="2">
         <v>0.95499999999999996</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J31" s="2">
         <v>0.95020000000000004</v>
       </c>
-      <c r="K31" s="50">
+      <c r="K31" s="2">
         <v>0.97729999999999995</v>
       </c>
-      <c r="L31" s="51">
+      <c r="L31" s="3">
         <v>2.6244000000000001</v>
       </c>
-      <c r="M31" s="50">
+      <c r="M31" s="2">
         <v>0.13109999999999999</v>
       </c>
-      <c r="N31" s="49">
+      <c r="N31" s="1">
         <v>316.9008</v>
       </c>
-      <c r="O31" s="51">
+      <c r="O31" s="3">
         <v>3.8925000000000001</v>
       </c>
-      <c r="P31" s="51">
+      <c r="P31" s="3">
         <v>9404.1221999999998</v>
       </c>
-      <c r="Q31" s="49">
+      <c r="Q31" s="1">
         <v>8.1184999999999992</v>
       </c>
-      <c r="R31" s="50">
+      <c r="R31" s="2">
         <v>0.66100000000000003</v>
       </c>
-      <c r="S31" s="50">
+      <c r="S31" s="2">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="T31" s="49">
+      <c r="T31" s="1">
         <v>14.157500000000001</v>
       </c>
-      <c r="U31" s="49">
+      <c r="U31" s="1">
         <v>2732.7577000000001</v>
       </c>
-      <c r="V31" s="50">
+      <c r="V31" s="2">
         <v>0.89380000000000004</v>
       </c>
-      <c r="W31" s="49">
+      <c r="W31" s="1">
         <v>1518.2494999999999</v>
       </c>
-      <c r="X31" s="53">
+      <c r="X31" s="6">
         <v>1.9658</v>
       </c>
-      <c r="Y31" s="49">
+      <c r="Y31" s="1">
         <v>1271.9683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="41">
+        <v>3</v>
+      </c>
+      <c r="D32" s="41">
+        <v>163931.03320000001</v>
+      </c>
+      <c r="E32" s="41">
+        <v>35916.1947</v>
+      </c>
+      <c r="F32" s="44">
+        <v>0.21909332270000001</v>
+      </c>
+      <c r="G32" s="44">
+        <v>0.1051576181</v>
+      </c>
+      <c r="H32" s="41">
+        <v>17238.597000000002</v>
+      </c>
+      <c r="I32" s="42">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="J32" s="42">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="K32" s="42">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="L32" s="43">
+        <v>4.5937999999999999</v>
+      </c>
+      <c r="M32" s="42">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="N32" s="41">
+        <v>245.7859</v>
+      </c>
+      <c r="O32" s="43">
+        <v>2.7305000000000001</v>
+      </c>
+      <c r="P32" s="43">
+        <v>51000.036999999997</v>
+      </c>
+      <c r="Q32" s="41">
+        <v>6.3308</v>
+      </c>
+      <c r="R32" s="42">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="S32" s="42">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="T32" s="41">
+        <v>21.2943</v>
+      </c>
+      <c r="U32" s="41">
+        <v>2757.7660999999998</v>
+      </c>
+      <c r="V32" s="42">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="W32" s="41">
+        <v>915.09659999999997</v>
+      </c>
+      <c r="X32" s="45">
+        <v>1.1826000000000001</v>
+      </c>
+      <c r="Y32" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="41">
+        <v>3</v>
+      </c>
+      <c r="D33" s="41">
+        <v>40885.480900000002</v>
+      </c>
+      <c r="E33" s="41">
+        <v>8342.8227000000006</v>
+      </c>
+      <c r="F33" s="44">
+        <v>0.20405343200000001</v>
+      </c>
+      <c r="G33" s="44">
+        <v>6.1643281699999997E-2</v>
+      </c>
+      <c r="H33" s="41">
+        <v>2520.3152</v>
+      </c>
+      <c r="I33" s="42">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="J33" s="42">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="K33" s="42">
+        <v>0.9728</v>
+      </c>
+      <c r="L33" s="43">
+        <v>2.9836999999999998</v>
+      </c>
+      <c r="M33" s="42">
+        <v>0.1149</v>
+      </c>
+      <c r="N33" s="41">
+        <v>669.56079999999997</v>
+      </c>
+      <c r="O33" s="43">
+        <v>4.4745999999999997</v>
+      </c>
+      <c r="P33" s="43">
+        <v>26053.677299999999</v>
+      </c>
+      <c r="Q33" s="41">
+        <v>8.1814999999999998</v>
+      </c>
+      <c r="R33" s="42">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="S33" s="42">
+        <v>0.1588</v>
+      </c>
+      <c r="T33" s="41">
+        <v>15.898199999999999</v>
+      </c>
+      <c r="U33" s="41">
+        <v>2573.4931999999999</v>
+      </c>
+      <c r="V33" s="42">
+        <v>0.9637</v>
+      </c>
+      <c r="W33" s="41">
+        <v>387.68049999999999</v>
+      </c>
+      <c r="X33" s="45">
+        <v>1.5745</v>
+      </c>
+      <c r="Y33" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="41">
+        <v>3</v>
+      </c>
+      <c r="D34" s="41">
+        <v>161601.802</v>
+      </c>
+      <c r="E34" s="41">
+        <v>254907.53510000001</v>
+      </c>
+      <c r="F34" s="44">
+        <v>1.5773805239000001</v>
+      </c>
+      <c r="G34" s="44">
+        <v>0.55216457190000001</v>
+      </c>
+      <c r="H34" s="41">
+        <v>89230.789799999999</v>
+      </c>
+      <c r="I34" s="42">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="J34" s="42">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="K34" s="42">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="L34" s="43">
+        <v>29526.250800000002</v>
+      </c>
+      <c r="M34" s="42">
+        <v>2.75E-2</v>
+      </c>
+      <c r="N34" s="41">
+        <v>4568.4627</v>
+      </c>
+      <c r="O34" s="43">
+        <v>1.613</v>
+      </c>
+      <c r="P34" s="43">
+        <v>267238.13799999998</v>
+      </c>
+      <c r="Q34" s="41">
+        <v>4.1746999999999996</v>
+      </c>
+      <c r="R34" s="42">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="S34" s="42">
+        <v>-0.41210000000000002</v>
+      </c>
+      <c r="T34" s="41">
+        <v>22.773900000000001</v>
+      </c>
+      <c r="U34" s="41">
+        <v>6412.5758999999998</v>
+      </c>
+      <c r="V34" s="42">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="W34" s="41">
+        <v>1790.2018</v>
+      </c>
+      <c r="X34" s="45">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="Y34" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="41">
+        <v>3</v>
+      </c>
+      <c r="D35" s="41">
+        <v>87010.042400000006</v>
+      </c>
+      <c r="E35" s="41">
+        <v>30356.620800000001</v>
+      </c>
+      <c r="F35" s="44">
+        <v>0.3488864049</v>
+      </c>
+      <c r="G35" s="44">
+        <v>0.12974432159999999</v>
+      </c>
+      <c r="H35" s="41">
+        <v>11289.0589</v>
+      </c>
+      <c r="I35" s="42">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="J35" s="42">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="K35" s="42">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="L35" s="43">
+        <v>1.7283999999999999</v>
+      </c>
+      <c r="M35" s="42">
+        <v>1.03E-2</v>
+      </c>
+      <c r="N35" s="41">
+        <v>196.57050000000001</v>
+      </c>
+      <c r="O35" s="43">
+        <v>2.5448</v>
+      </c>
+      <c r="P35" s="43">
+        <v>48524.361199999999</v>
+      </c>
+      <c r="Q35" s="41">
+        <v>6.1413000000000002</v>
+      </c>
+      <c r="R35" s="42">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="S35" s="42">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="T35" s="41">
+        <v>19.814699999999998</v>
+      </c>
+      <c r="U35" s="41">
+        <v>1480.7075</v>
+      </c>
+      <c r="V35" s="42">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="W35" s="41">
+        <v>420.61709999999999</v>
+      </c>
+      <c r="X35" s="45">
+        <v>0.9254</v>
+      </c>
+      <c r="Y35" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="41">
+        <v>3</v>
+      </c>
+      <c r="D36" s="41">
+        <v>54010.711799999997</v>
+      </c>
+      <c r="E36" s="41">
+        <v>20099.8433</v>
+      </c>
+      <c r="F36" s="44">
+        <v>0.3721454985</v>
+      </c>
+      <c r="G36" s="44">
+        <v>0.1186329097</v>
+      </c>
+      <c r="H36" s="41">
+        <v>6407.4479000000001</v>
+      </c>
+      <c r="I36" s="42">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="J36" s="42">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="K36" s="42">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="L36" s="43">
+        <v>1.7104999999999999</v>
+      </c>
+      <c r="M36" s="42">
+        <v>1.43E-2</v>
+      </c>
+      <c r="N36" s="41">
+        <v>197.10839999999999</v>
+      </c>
+      <c r="O36" s="43">
+        <v>2.4944000000000002</v>
+      </c>
+      <c r="P36" s="43">
+        <v>34154.813499999997</v>
+      </c>
+      <c r="Q36" s="41">
+        <v>6.1277999999999997</v>
+      </c>
+      <c r="R36" s="42">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="S36" s="42">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="T36" s="41">
+        <v>20.1629</v>
+      </c>
+      <c r="U36" s="41">
+        <v>1745.547</v>
+      </c>
+      <c r="V36" s="42">
+        <v>0.9637</v>
+      </c>
+      <c r="W36" s="41">
+        <v>386.72829999999999</v>
+      </c>
+      <c r="X36" s="45">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="Y36" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="41">
+        <v>3</v>
+      </c>
+      <c r="D37" s="41">
+        <v>8236.2641999999996</v>
+      </c>
+      <c r="E37" s="41">
+        <v>4258.2809999999999</v>
+      </c>
+      <c r="F37" s="44">
+        <v>0.51701608180000003</v>
+      </c>
+      <c r="G37" s="44">
+        <v>0.17467808269999999</v>
+      </c>
+      <c r="H37" s="41">
+        <v>1438.6948</v>
+      </c>
+      <c r="I37" s="42">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="J37" s="42">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="K37" s="42">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="L37" s="43">
+        <v>3.4712999999999998</v>
+      </c>
+      <c r="M37" s="42">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="N37" s="41">
+        <v>176.92439999999999</v>
+      </c>
+      <c r="O37" s="43">
+        <v>2.8616000000000001</v>
+      </c>
+      <c r="P37" s="43">
+        <v>8068.7290000000003</v>
+      </c>
+      <c r="Q37" s="41">
+        <v>6.617</v>
+      </c>
+      <c r="R37" s="42">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="S37" s="42">
+        <v>-2.86E-2</v>
+      </c>
+      <c r="T37" s="41">
+        <v>14.2445</v>
+      </c>
+      <c r="U37" s="41">
+        <v>1662.8741</v>
+      </c>
+      <c r="V37" s="42">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="W37" s="41">
+        <v>621.70960000000002</v>
+      </c>
+      <c r="X37" s="45">
+        <v>1.2183999999999999</v>
+      </c>
+      <c r="Y37" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="41">
+        <v>3</v>
+      </c>
+      <c r="D38" s="41">
+        <v>30984.440900000001</v>
+      </c>
+      <c r="E38" s="41">
+        <v>54472.002999999997</v>
+      </c>
+      <c r="F38" s="44">
+        <v>1.7580437586</v>
+      </c>
+      <c r="G38" s="44">
+        <v>0.64931966969999999</v>
+      </c>
+      <c r="H38" s="41">
+        <v>20118.8069</v>
+      </c>
+      <c r="I38" s="42">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="J38" s="42">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="K38" s="42">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="L38" s="43">
+        <v>5647.3579</v>
+      </c>
+      <c r="M38" s="42">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="N38" s="41">
+        <v>991.62630000000001</v>
+      </c>
+      <c r="O38" s="43">
+        <v>1.5702</v>
+      </c>
+      <c r="P38" s="43">
+        <v>53944.321499999998</v>
+      </c>
+      <c r="Q38" s="41">
+        <v>4.13</v>
+      </c>
+      <c r="R38" s="42">
+        <v>0.5766</v>
+      </c>
+      <c r="S38" s="42">
+        <v>-0.51580000000000004</v>
+      </c>
+      <c r="T38" s="41">
+        <v>22.657800000000002</v>
+      </c>
+      <c r="U38" s="41">
+        <v>6926.0614999999998</v>
+      </c>
+      <c r="V38" s="42">
+        <v>0.8891</v>
+      </c>
+      <c r="W38" s="41">
+        <v>2122.9665</v>
+      </c>
+      <c r="X38" s="45">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="Y38" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="41">
+        <v>3</v>
+      </c>
+      <c r="D39" s="41">
+        <v>14405.088100000001</v>
+      </c>
+      <c r="E39" s="41">
+        <v>3759.7840000000001</v>
+      </c>
+      <c r="F39" s="44">
+        <v>0.26100388790000001</v>
+      </c>
+      <c r="G39" s="44">
+        <v>0.1009851822</v>
+      </c>
+      <c r="H39" s="41">
+        <v>1454.7003999999999</v>
+      </c>
+      <c r="I39" s="42">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="J39" s="42">
+        <v>0.9516</v>
+      </c>
+      <c r="K39" s="42">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="L39" s="43">
+        <v>2.6522999999999999</v>
+      </c>
+      <c r="M39" s="42">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="N39" s="41">
+        <v>197.63</v>
+      </c>
+      <c r="O39" s="43">
+        <v>4.0933000000000002</v>
+      </c>
+      <c r="P39" s="43">
+        <v>9435.4434999999994</v>
+      </c>
+      <c r="Q39" s="41">
+        <v>7.9390000000000001</v>
+      </c>
+      <c r="R39" s="42">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="S39" s="42">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="T39" s="41">
+        <v>14.070499999999999</v>
+      </c>
+      <c r="U39" s="41">
+        <v>2559.2577000000001</v>
+      </c>
+      <c r="V39" s="42">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="W39" s="41">
+        <v>897.56550000000004</v>
+      </c>
+      <c r="X39" s="45">
+        <v>1.8077000000000001</v>
+      </c>
+      <c r="Y39" s="41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7512,10 +9433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8249,177 +10170,409 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="2">
         <v>0.93710000000000004</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="2">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="3">
         <v>6.3243999999999998</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="3">
         <v>6.3243999999999998</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="1">
         <v>9353.2401000000009</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="1">
         <v>1921.1624999999999</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="2">
         <v>0.97030000000000005</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="2">
         <v>1.12E-2</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="3">
         <v>9.6027000000000005</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="3">
         <v>9.6027000000000005</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="1">
         <v>542228.71010000003</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="1">
         <v>62036.271000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="2">
         <v>0.93540000000000001</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="2">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="3">
         <v>4.3807</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="3">
         <v>4.3807</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="1">
         <v>8639.0226999999995</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="1">
         <v>1340.7746</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="1">
         <v>2</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="2">
         <v>0.99170000000000003</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="3">
         <v>3.5103</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="3">
         <v>3.5103</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="1">
         <v>108633.514</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="1">
         <v>4363.7284</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="2">
         <v>0.94469999999999998</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="2">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="3">
         <v>10.792199999999999</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="3">
         <v>10.792199999999999</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="1">
         <v>116933.62420000001</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="1">
         <v>8288.7278999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="1">
         <v>2</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="2">
         <v>0.93630000000000002</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="2">
         <v>2.86E-2</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="3">
         <v>10.444000000000001</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="3">
         <v>10.444000000000001</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="1">
         <v>317913.07900000003</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="1">
         <v>143912.7365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="E32" s="15">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="F32" s="16">
+        <v>4.7287999999999997</v>
+      </c>
+      <c r="G32" s="16">
+        <v>4.7287999999999997</v>
+      </c>
+      <c r="H32" s="14">
+        <v>9021.8284999999996</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1634.2543000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="14">
+        <v>3</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="E33" s="15">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F33" s="16">
+        <v>11.720499999999999</v>
+      </c>
+      <c r="G33" s="16">
+        <v>11.720499999999999</v>
+      </c>
+      <c r="H33" s="14">
+        <v>2615561.5304999999</v>
+      </c>
+      <c r="I33" s="14">
+        <v>292447.54710000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="14">
+        <v>3</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="E34" s="15">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="F34" s="16">
+        <v>12.5039</v>
+      </c>
+      <c r="G34" s="16">
+        <v>12.823</v>
+      </c>
+      <c r="H34" s="14">
+        <v>2539688.9999000002</v>
+      </c>
+      <c r="I34" s="14">
+        <v>31667.6698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="14">
+        <v>3</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F35" s="16">
+        <v>5.1349999999999998</v>
+      </c>
+      <c r="G35" s="16">
+        <v>5.1349999999999998</v>
+      </c>
+      <c r="H35" s="14">
+        <v>50149.654799999997</v>
+      </c>
+      <c r="I35" s="14">
+        <v>2695.0129999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="14">
+        <v>3</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1.61E-2</v>
+      </c>
+      <c r="F36" s="16">
+        <v>3.7713999999999999</v>
+      </c>
+      <c r="G36" s="16">
+        <v>3.7713999999999999</v>
+      </c>
+      <c r="H36" s="14">
+        <v>80462.4519</v>
+      </c>
+      <c r="I36" s="14">
+        <v>4701.9273999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="14">
+        <v>3</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="E37" s="15">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F37" s="16">
+        <v>5.5701000000000001</v>
+      </c>
+      <c r="G37" s="16">
+        <v>5.5701000000000001</v>
+      </c>
+      <c r="H37" s="14">
+        <v>109424.3125</v>
+      </c>
+      <c r="I37" s="14">
+        <v>5435.2582000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="14">
+        <v>3</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="E38" s="15">
+        <v>2.58E-2</v>
+      </c>
+      <c r="F38" s="16">
+        <v>3.3653</v>
+      </c>
+      <c r="G38" s="16">
+        <v>3.3653</v>
+      </c>
+      <c r="H38" s="14">
+        <v>108158.04580000001</v>
+      </c>
+      <c r="I38" s="14">
+        <v>5986.9233000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="14">
+        <v>3</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="E39" s="15">
+        <v>3.27E-2</v>
+      </c>
+      <c r="F39" s="16">
+        <v>5.4541000000000004</v>
+      </c>
+      <c r="G39" s="16">
+        <v>5.4541000000000004</v>
+      </c>
+      <c r="H39" s="14">
+        <v>317893.59169999999</v>
+      </c>
+      <c r="I39" s="14">
+        <v>143370.7205</v>
       </c>
     </row>
   </sheetData>
@@ -8429,10 +10582,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9313,213 +11466,528 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="2">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="3">
         <v>6.3243999999999998</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="1">
         <v>9353.2401000000009</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="1">
         <v>1921.1624999999999</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="1">
         <v>89.497</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="1">
         <v>2422</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="4">
         <v>3.8610000000000002</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="1">
         <v>383.02749999999997</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="2">
         <v>1.12E-2</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="3">
         <v>9.6027000000000005</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="1">
         <v>542228.71010000003</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="1">
         <v>62036.271000000001</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="1">
         <v>41313.084300000002</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="1">
         <v>1084445</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="4">
         <v>0.5</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="1">
         <v>112930.5135</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="2">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="3">
         <v>4.3807</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="1">
         <v>8639.0226999999995</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="1">
         <v>1340.7746</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="1">
         <v>170.47489999999999</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="1">
         <v>4497</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="4">
         <v>1.9211</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="1">
         <v>1026.49</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="1">
         <v>2</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="2">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="3">
         <v>3.5103</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="1">
         <v>108633.514</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="1">
         <v>4363.7284</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="1">
         <v>4010.5617000000002</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="1">
         <v>105311</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="4">
         <v>1.0315000000000001</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="1">
         <v>30000</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="2">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="3">
         <v>10.792199999999999</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="1">
         <v>116933.62420000001</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="1">
         <v>8288.7278999999999</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="1">
         <v>158990.06469999999</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="1">
         <v>4294265</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="4">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="1">
         <v>397903.22580000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="1">
         <v>2</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="2">
         <v>2.86E-2</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="3">
         <v>10.444000000000001</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="1">
         <v>317913.07900000003</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="1">
         <v>143912.7365</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="1">
         <v>229760.08480000001</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="1">
         <v>6137578</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="4">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="1">
         <v>587660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="17">
+        <v>3</v>
+      </c>
+      <c r="D32" s="18">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="E32" s="19">
+        <v>4.7287999999999997</v>
+      </c>
+      <c r="F32" s="17">
+        <v>9021.8284999999996</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1634.2543000000001</v>
+      </c>
+      <c r="H32" s="17">
+        <v>89.258799999999994</v>
+      </c>
+      <c r="I32" s="17">
+        <v>2408</v>
+      </c>
+      <c r="J32" s="20">
+        <v>3.7465999999999999</v>
+      </c>
+      <c r="K32" s="17">
+        <v>509.20240000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2.23E-2</v>
+      </c>
+      <c r="E33" s="19">
+        <v>11.720499999999999</v>
+      </c>
+      <c r="F33" s="17">
+        <v>2615561.5304999999</v>
+      </c>
+      <c r="G33" s="17">
+        <v>292447.54710000003</v>
+      </c>
+      <c r="H33" s="17">
+        <v>197248.899</v>
+      </c>
+      <c r="I33" s="17">
+        <v>5246418</v>
+      </c>
+      <c r="J33" s="20">
+        <v>0.4985</v>
+      </c>
+      <c r="K33" s="17">
+        <v>447623.7623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="17">
+        <v>3</v>
+      </c>
+      <c r="D34" s="18">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E34" s="19">
+        <v>6.4695</v>
+      </c>
+      <c r="F34" s="17">
+        <v>2128086.7088000001</v>
+      </c>
+      <c r="G34" s="17">
+        <v>25545.5154</v>
+      </c>
+      <c r="H34" s="17">
+        <v>2660715.0545999999</v>
+      </c>
+      <c r="I34" s="17">
+        <v>70056684</v>
+      </c>
+      <c r="J34" s="20">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="K34" s="17">
+        <v>10828699.5515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+      <c r="D35" s="18">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E35" s="19">
+        <v>6.3533999999999997</v>
+      </c>
+      <c r="F35" s="17">
+        <v>411602.29100000003</v>
+      </c>
+      <c r="G35" s="17">
+        <v>6122.1544000000004</v>
+      </c>
+      <c r="H35" s="17">
+        <v>515239.86609999998</v>
+      </c>
+      <c r="I35" s="17">
+        <v>13510600</v>
+      </c>
+      <c r="J35" s="20">
+        <v>3.04E-2</v>
+      </c>
+      <c r="K35" s="17">
+        <v>2126484.0181999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="17">
+        <v>3</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="19">
+        <v>5.1349999999999998</v>
+      </c>
+      <c r="F36" s="17">
+        <v>50149.654799999997</v>
+      </c>
+      <c r="G36" s="17">
+        <v>2695.0129999999999</v>
+      </c>
+      <c r="H36" s="17">
+        <v>198497.1825</v>
+      </c>
+      <c r="I36" s="17">
+        <v>5214796</v>
+      </c>
+      <c r="J36" s="20">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="K36" s="17">
+        <v>1015536.7230999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="17">
+        <v>3</v>
+      </c>
+      <c r="D37" s="18">
+        <v>1.61E-2</v>
+      </c>
+      <c r="E37" s="19">
+        <v>3.7713999999999999</v>
+      </c>
+      <c r="F37" s="17">
+        <v>80462.4519</v>
+      </c>
+      <c r="G37" s="17">
+        <v>4701.9273999999996</v>
+      </c>
+      <c r="H37" s="17">
+        <v>1772.9603</v>
+      </c>
+      <c r="I37" s="17">
+        <v>46679</v>
+      </c>
+      <c r="J37" s="20">
+        <v>1.7237</v>
+      </c>
+      <c r="K37" s="17">
+        <v>12376.923000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="17">
+        <v>3</v>
+      </c>
+      <c r="D38" s="18">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E38" s="19">
+        <v>5.5701000000000001</v>
+      </c>
+      <c r="F38" s="17">
+        <v>109424.3125</v>
+      </c>
+      <c r="G38" s="17">
+        <v>5435.2582000000002</v>
+      </c>
+      <c r="H38" s="17">
+        <v>3901.9769000000001</v>
+      </c>
+      <c r="I38" s="17">
+        <v>104702</v>
+      </c>
+      <c r="J38" s="20">
+        <v>1.0450999999999999</v>
+      </c>
+      <c r="K38" s="17">
+        <v>18796.875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="17">
+        <v>3</v>
+      </c>
+      <c r="D39" s="18">
+        <v>2.58E-2</v>
+      </c>
+      <c r="E39" s="19">
+        <v>3.3653</v>
+      </c>
+      <c r="F39" s="17">
+        <v>108158.04580000001</v>
+      </c>
+      <c r="G39" s="17">
+        <v>5986.9233000000004</v>
+      </c>
+      <c r="H39" s="17">
+        <v>152216.25750000001</v>
+      </c>
+      <c r="I39" s="17">
+        <v>4038384</v>
+      </c>
+      <c r="J39" s="20">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="K39" s="17">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="17">
+        <v>3</v>
+      </c>
+      <c r="D40" s="18">
+        <v>3.27E-2</v>
+      </c>
+      <c r="E40" s="19">
+        <v>5.4541000000000004</v>
+      </c>
+      <c r="F40" s="17">
+        <v>317893.59169999999</v>
+      </c>
+      <c r="G40" s="17">
+        <v>143370.7205</v>
+      </c>
+      <c r="H40" s="17">
+        <v>229534.96090000001</v>
+      </c>
+      <c r="I40" s="17">
+        <v>6188754</v>
+      </c>
+      <c r="J40" s="20">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="K40" s="17">
+        <v>1134689.3617</v>
       </c>
     </row>
   </sheetData>
@@ -9529,10 +11997,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9793,57 +12261,154 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="3">
         <v>66.818399999999997</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="3">
         <v>13.962</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="1">
         <v>5.4029999999999996</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="3">
         <v>34.124899999999997</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="3">
         <v>0.2009</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="2">
         <v>0.55679999999999996</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="2">
         <v>0.1163</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="2">
         <v>0.2843</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="1">
         <v>13203.6785</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="2">
         <v>0.93469999999999998</v>
       </c>
-      <c r="O6" s="23">
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H7" s="2"/>
+      <c r="A7" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="21">
+        <v>3</v>
+      </c>
+      <c r="C7" s="23">
+        <v>57.87</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1.7278</v>
+      </c>
+      <c r="E7" s="21">
+        <v>2.2467000000000001</v>
+      </c>
+      <c r="F7" s="23">
+        <v>23.4879</v>
+      </c>
+      <c r="G7" s="23">
+        <v>5.3023999999999996</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="I7" s="22">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="J7" s="22">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="L7" s="22">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="M7" s="21">
+        <v>13338.6374</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="O7" s="23">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="21">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23">
+        <v>64.953100000000006</v>
+      </c>
+      <c r="D8" s="23">
+        <v>13.694000000000001</v>
+      </c>
+      <c r="E8" s="21">
+        <v>3.8873000000000002</v>
+      </c>
+      <c r="F8" s="23">
+        <v>37.683300000000003</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="J8" s="22">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0.314</v>
+      </c>
+      <c r="L8" s="22">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="M8" s="21">
+        <v>12779.6458</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -9852,10 +12417,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9934,17 +12499,31 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="2">
         <v>0.16370000000000001</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="1">
         <v>10888.808300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="24">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="D7" s="24">
+        <v>11049.5224</v>
       </c>
     </row>
   </sheetData>
@@ -9954,13 +12533,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10613,153 +13195,353 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="5">
         <v>0.98048750103625204</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="2">
         <v>0.9405</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="2">
         <v>0.93240000000000001</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="2">
         <v>0.90510000000000002</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="1">
         <v>74408.787200000006</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="1">
         <v>33994.025199999996</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="3">
         <v>10.116</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="3">
         <v>5.2008000000000001</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="3">
         <v>248.01820000000001</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="3">
         <v>12.6449</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="2">
         <v>0.86839999999999995</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="2">
         <v>0.90620000000000001</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="6">
         <v>1.0833999999999999</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="1">
         <v>161878.92430000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="5">
         <v>0.95474342655731703</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="2">
         <v>0.96879999999999999</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="2">
         <v>0.96630000000000005</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="2">
         <v>0.95069999999999999</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="1">
         <v>12516.1032</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="1">
         <v>5117.5308000000005</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="3">
         <v>3.6107999999999998</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="3">
         <v>10.583500000000001</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="3">
         <v>27.8141</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="3">
         <v>17.070799999999998</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="2">
         <v>0.8256</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="2">
         <v>0.96279999999999999</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="6">
         <v>1.3011999999999999</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="1">
         <v>22169.163100000002</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="5">
         <v>1.00250377157666</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="2">
         <v>0.97819999999999996</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="2">
         <v>0.97270000000000001</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="2">
         <v>0.97270000000000001</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="1">
         <v>30999.8174</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="1">
         <v>14882.836499999999</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="3">
         <v>2.2561</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="3">
         <v>1.3122</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="3">
         <v>49.3249</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="3">
         <v>14.3544</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="2">
         <v>0.85640000000000005</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="2">
         <v>0.98</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="6">
         <v>1.1908000000000001</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="1">
         <v>32353.115300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="26">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29">
+        <v>0.74</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="G17" s="26">
+        <v>284978.69880000001</v>
+      </c>
+      <c r="H17" s="26">
+        <v>102350.4767</v>
+      </c>
+      <c r="I17" s="28">
+        <v>35167.480600000003</v>
+      </c>
+      <c r="J17" s="28">
+        <v>35167.480600000003</v>
+      </c>
+      <c r="K17" s="28">
+        <v>294.9676</v>
+      </c>
+      <c r="L17" s="28">
+        <v>8.1784999999999997</v>
+      </c>
+      <c r="M17" s="27">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="N17" s="27">
+        <v>1</v>
+      </c>
+      <c r="O17" s="30">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="P17" s="26">
+        <v>3258611.8051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="26">
+        <v>3</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0.775303122039808</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="G18" s="26">
+        <v>73058.702499999999</v>
+      </c>
+      <c r="H18" s="26">
+        <v>23428.110100000002</v>
+      </c>
+      <c r="I18" s="28">
+        <v>11.0444</v>
+      </c>
+      <c r="J18" s="28">
+        <v>6.9570999999999996</v>
+      </c>
+      <c r="K18" s="28">
+        <v>266.73059999999998</v>
+      </c>
+      <c r="L18" s="28">
+        <v>12.891299999999999</v>
+      </c>
+      <c r="M18" s="27">
+        <v>0.84660000000000002</v>
+      </c>
+      <c r="N18" s="27">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="O18" s="30">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="P18" s="26">
+        <v>174323.93659999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="26">
+        <v>3</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.94002923969872398</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.9415</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="F19" s="27">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="G19" s="26">
+        <v>22961.359700000001</v>
+      </c>
+      <c r="H19" s="26">
+        <v>8837.6070999999993</v>
+      </c>
+      <c r="I19" s="28">
+        <v>4.2847</v>
+      </c>
+      <c r="J19" s="28">
+        <v>15.023400000000001</v>
+      </c>
+      <c r="K19" s="28">
+        <v>39.222200000000001</v>
+      </c>
+      <c r="L19" s="28">
+        <v>13.7379</v>
+      </c>
+      <c r="M19" s="27">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="N19" s="27">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="O19" s="30">
+        <v>1.0316000000000001</v>
+      </c>
+      <c r="P19" s="26">
+        <v>30804.342700000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="26">
+        <v>3</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1.00509458097672</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="G20" s="26">
+        <v>31114.323799999998</v>
+      </c>
+      <c r="H20" s="26">
+        <v>15082.217000000001</v>
+      </c>
+      <c r="I20" s="28">
+        <v>2.2294</v>
+      </c>
+      <c r="J20" s="28">
+        <v>1.2876000000000001</v>
+      </c>
+      <c r="K20" s="28">
+        <v>49.363900000000001</v>
+      </c>
+      <c r="L20" s="28">
+        <v>12.5014</v>
+      </c>
+      <c r="M20" s="27">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="N20" s="27">
+        <v>0.98</v>
+      </c>
+      <c r="O20" s="30">
+        <v>1.1828000000000001</v>
+      </c>
+      <c r="P20" s="26">
+        <v>32375.018899999999</v>
       </c>
     </row>
   </sheetData>
@@ -10769,10 +13551,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12520,425 +15302,1130 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="1">
         <v>31194.108400000001</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="1">
         <v>7646.3582999999999</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="6">
         <v>0.24512187520000001</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="1">
         <v>3355.8996999999999</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="4">
         <v>0.10758120390000001</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="2">
         <v>0.86250000000000004</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="2">
         <v>0.95150000000000001</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="2">
         <v>0.93730000000000002</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="2">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="M38" s="32">
+      <c r="M38" s="2">
         <v>0.96199999999999997</v>
       </c>
-      <c r="N38" s="34">
+      <c r="N38" s="6">
         <v>1.4944</v>
       </c>
-      <c r="O38" s="32">
+      <c r="O38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="1">
         <v>86240.124899999995</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="1">
         <v>38050.813999999998</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="6">
         <v>0.4412193754</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="1">
         <v>18002.971799999999</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="4">
         <v>0.20875400869999999</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="2">
         <v>0.87570000000000003</v>
       </c>
-      <c r="J39" s="32">
+      <c r="J39" s="2">
         <v>0.93300000000000005</v>
       </c>
-      <c r="K39" s="32">
+      <c r="K39" s="2">
         <v>0.92620000000000002</v>
       </c>
-      <c r="L39" s="32">
+      <c r="L39" s="2">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M39" s="2">
         <v>0.87749999999999995</v>
       </c>
-      <c r="N39" s="34">
+      <c r="N39" s="6">
         <v>1.0301</v>
       </c>
-      <c r="O39" s="32">
+      <c r="O39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="1">
         <v>2</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="1">
         <v>53829.2791</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="1">
         <v>25333.888999999999</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="6">
         <v>0.47063400039999997</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="1">
         <v>11081.8406</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="4">
         <v>0.20587012930000001</v>
       </c>
-      <c r="I40" s="32">
+      <c r="I40" s="2">
         <v>0.88009999999999999</v>
       </c>
-      <c r="J40" s="32">
+      <c r="J40" s="2">
         <v>0.94310000000000005</v>
       </c>
-      <c r="K40" s="32">
+      <c r="K40" s="2">
         <v>0.92620000000000002</v>
       </c>
-      <c r="L40" s="32">
+      <c r="L40" s="2">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="M40" s="32">
+      <c r="M40" s="2">
         <v>0.90610000000000002</v>
       </c>
-      <c r="N40" s="34">
+      <c r="N40" s="6">
         <v>1.0436000000000001</v>
       </c>
-      <c r="O40" s="32">
+      <c r="O40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="1">
         <v>2</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="1">
         <v>10765.454100000001</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="1">
         <v>3377.7258000000002</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="6">
         <v>0.3137560003</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="1">
         <v>1553.3130000000001</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="4">
         <v>0.14428681260000001</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="2">
         <v>0.85519999999999996</v>
       </c>
-      <c r="J41" s="32">
+      <c r="J41" s="2">
         <v>0.95660000000000001</v>
       </c>
-      <c r="K41" s="32">
+      <c r="K41" s="2">
         <v>0.95109999999999995</v>
       </c>
-      <c r="L41" s="32">
+      <c r="L41" s="2">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="M41" s="32">
+      <c r="M41" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N41" s="34">
+      <c r="N41" s="6">
         <v>1.9781</v>
       </c>
-      <c r="O41" s="32">
+      <c r="O41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="1">
         <v>2</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="1">
         <v>23126.498500000002</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="1">
         <v>4857.5718999999999</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="6">
         <v>0.2100435538</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42" s="1">
         <v>2205.7574</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="4">
         <v>9.5377926299999999E-2</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="2">
         <v>0.83389999999999997</v>
       </c>
-      <c r="J42" s="32">
+      <c r="J42" s="2">
         <v>0.97089999999999999</v>
       </c>
-      <c r="K42" s="32">
+      <c r="K42" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="L42" s="32">
+      <c r="L42" s="2">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M42" s="2">
         <v>0.95630000000000004</v>
       </c>
-      <c r="N42" s="34">
+      <c r="N42" s="6">
         <v>1.1882999999999999</v>
       </c>
-      <c r="O42" s="32">
+      <c r="O42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="1">
         <v>2</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="1">
         <v>9995.4830999999995</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="1">
         <v>2385.7804000000001</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="6">
         <v>0.2386858566</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="1">
         <v>1010.9949</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="4">
         <v>0.1011451853</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="2">
         <v>0.82789999999999997</v>
       </c>
-      <c r="J43" s="32">
+      <c r="J43" s="2">
         <v>0.97199999999999998</v>
       </c>
-      <c r="K43" s="32">
+      <c r="K43" s="2">
         <v>0.97050000000000003</v>
       </c>
-      <c r="L43" s="32">
+      <c r="L43" s="2">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M43" s="2">
         <v>0.98099999999999998</v>
       </c>
-      <c r="N43" s="34">
+      <c r="N43" s="6">
         <v>1.4441999999999999</v>
       </c>
-      <c r="O43" s="32">
+      <c r="O43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="1">
         <v>2</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="1">
         <v>8010.4328999999998</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="1">
         <v>4206.3495000000003</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="6">
         <v>0.52510888460000005</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="1">
         <v>1425.9042999999999</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H44" s="4">
         <v>0.1780059011</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="2">
         <v>0.82210000000000005</v>
       </c>
-      <c r="J44" s="32">
+      <c r="J44" s="2">
         <v>0.96689999999999998</v>
       </c>
-      <c r="K44" s="32">
+      <c r="K44" s="2">
         <v>0.9637</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="2">
         <v>6.3E-3</v>
       </c>
-      <c r="M44" s="32">
+      <c r="M44" s="2">
         <v>0.94930000000000003</v>
       </c>
-      <c r="N44" s="34">
+      <c r="N44" s="6">
         <v>1.2636000000000001</v>
       </c>
-      <c r="O44" s="32">
+      <c r="O44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="1">
         <v>2</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="1">
         <v>3490.4708000000001</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="1">
         <v>1066.4013</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="6">
         <v>0.30551789639999999</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="1">
         <v>474.87400000000002</v>
       </c>
-      <c r="H45" s="33">
+      <c r="H45" s="4">
         <v>0.1360487088</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I45" s="2">
         <v>0.81850000000000001</v>
       </c>
-      <c r="J45" s="32">
+      <c r="J45" s="2">
         <v>0.94979999999999998</v>
       </c>
-      <c r="K45" s="32">
+      <c r="K45" s="2">
         <v>0.94979999999999998</v>
       </c>
-      <c r="L45" s="32">
+      <c r="L45" s="2">
         <v>6.6E-3</v>
       </c>
-      <c r="M45" s="32">
+      <c r="M45" s="2">
         <v>0.98470000000000002</v>
       </c>
-      <c r="N45" s="34">
+      <c r="N45" s="6">
         <v>1.9278999999999999</v>
       </c>
-      <c r="O45" s="32">
+      <c r="O45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="1">
         <v>140556.3401</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="1">
         <v>30999.8174</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="6">
         <v>0.22055082970000001</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G46" s="1">
         <v>14882.836499999999</v>
       </c>
-      <c r="H46" s="33">
+      <c r="H46" s="4">
         <v>0.1058852022</v>
       </c>
-      <c r="I46" s="32">
+      <c r="I46" s="2">
         <v>0.85640000000000005</v>
       </c>
-      <c r="J46" s="32">
+      <c r="J46" s="2">
         <v>0.97819999999999996</v>
       </c>
-      <c r="K46" s="32">
+      <c r="K46" s="2">
         <v>0.97270000000000001</v>
       </c>
-      <c r="L46" s="32">
+      <c r="L46" s="2">
         <v>1.72E-2</v>
       </c>
-      <c r="M46" s="32">
+      <c r="M46" s="2">
         <v>0.98</v>
       </c>
-      <c r="N46" s="34">
+      <c r="N46" s="6">
         <v>1.1908000000000001</v>
       </c>
-      <c r="O46" s="32">
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="31">
+        <v>3</v>
+      </c>
+      <c r="D47" s="31">
+        <v>147613.67439999999</v>
+      </c>
+      <c r="E47" s="31">
+        <v>234853.3559</v>
+      </c>
+      <c r="F47" s="34">
+        <v>1.591</v>
+      </c>
+      <c r="G47" s="31">
+        <v>83517.462199999994</v>
+      </c>
+      <c r="H47" s="33">
+        <v>0.56578404800000004</v>
+      </c>
+      <c r="I47" s="32">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="J47" s="32">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="K47" s="32">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="L47" s="32">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="M47" s="32">
+        <v>1</v>
+      </c>
+      <c r="N47" s="34">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="O47" s="32">
+        <v>-9.3600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="31">
+        <v>3</v>
+      </c>
+      <c r="D48" s="31">
+        <v>28223.728999999999</v>
+      </c>
+      <c r="E48" s="31">
+        <v>50125.342799999999</v>
+      </c>
+      <c r="F48" s="34">
+        <v>1.776</v>
+      </c>
+      <c r="G48" s="31">
+        <v>18833.014500000001</v>
+      </c>
+      <c r="H48" s="33">
+        <v>0.66727591109999995</v>
+      </c>
+      <c r="I48" s="32">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="J48" s="32">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="K48" s="32">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="L48" s="32">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="M48" s="32">
+        <v>1</v>
+      </c>
+      <c r="N48" s="34">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="O48" s="32">
+        <v>-0.13819999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="31">
+        <v>3</v>
+      </c>
+      <c r="D49" s="31">
+        <v>30731.354599999999</v>
+      </c>
+      <c r="E49" s="31">
+        <v>5956.5286999999998</v>
+      </c>
+      <c r="F49" s="34">
+        <v>0.19382578049999999</v>
+      </c>
+      <c r="G49" s="31">
+        <v>1580.0718999999999</v>
+      </c>
+      <c r="H49" s="33">
+        <v>5.14156302E-2</v>
+      </c>
+      <c r="I49" s="32">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="J49" s="32">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="K49" s="32">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="L49" s="32">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="M49" s="32">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="N49" s="34">
+        <v>1.5871999999999999</v>
+      </c>
+      <c r="O49" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="31">
+        <v>3</v>
+      </c>
+      <c r="D50" s="31">
+        <v>8630.4395999999997</v>
+      </c>
+      <c r="E50" s="31">
+        <v>11441.963599999999</v>
+      </c>
+      <c r="F50" s="34">
+        <v>1.3257683386000001</v>
+      </c>
+      <c r="G50" s="31">
+        <v>2593.8991999999998</v>
+      </c>
+      <c r="H50" s="33">
+        <v>0.30055238670000001</v>
+      </c>
+      <c r="I50" s="32">
+        <v>0.82179999999999997</v>
+      </c>
+      <c r="J50" s="32">
+        <v>0.8589</v>
+      </c>
+      <c r="K50" s="32">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="L50" s="32">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="M50" s="32">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="N50" s="34">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="O50" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="31">
+        <v>3</v>
+      </c>
+      <c r="D51" s="31">
+        <v>87010.042400000006</v>
+      </c>
+      <c r="E51" s="31">
+        <v>30356.620800000001</v>
+      </c>
+      <c r="F51" s="34">
+        <v>0.3488864049</v>
+      </c>
+      <c r="G51" s="31">
+        <v>11289.0589</v>
+      </c>
+      <c r="H51" s="33">
+        <v>0.12974432159999999</v>
+      </c>
+      <c r="I51" s="32">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="J51" s="32">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="K51" s="32">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="L51" s="32">
+        <v>3.49E-2</v>
+      </c>
+      <c r="M51" s="32">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="N51" s="34">
+        <v>0.9254</v>
+      </c>
+      <c r="O51" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="31">
+        <v>3</v>
+      </c>
+      <c r="D52" s="31">
+        <v>54010.711799999997</v>
+      </c>
+      <c r="E52" s="31">
+        <v>20099.8433</v>
+      </c>
+      <c r="F52" s="34">
+        <v>0.3721454985</v>
+      </c>
+      <c r="G52" s="31">
+        <v>6407.4479000000001</v>
+      </c>
+      <c r="H52" s="33">
+        <v>0.1186329097</v>
+      </c>
+      <c r="I52" s="32">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="J52" s="32">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="K52" s="32">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="L52" s="32">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="M52" s="32">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="N52" s="34">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O52" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="31">
+        <v>3</v>
+      </c>
+      <c r="D53" s="31">
+        <v>1718.5896</v>
+      </c>
+      <c r="E53" s="31">
+        <v>2504.9643999999998</v>
+      </c>
+      <c r="F53" s="34">
+        <v>1.4575698694000001</v>
+      </c>
+      <c r="G53" s="31">
+        <v>599.52269999999999</v>
+      </c>
+      <c r="H53" s="33">
+        <v>0.34884578049999998</v>
+      </c>
+      <c r="I53" s="32">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J53" s="32">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="K53" s="32">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="L53" s="32">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="M53" s="32">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="N53" s="34">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="O53" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="31">
+        <v>3</v>
+      </c>
+      <c r="D54" s="31">
+        <v>10877.929</v>
+      </c>
+      <c r="E54" s="31">
+        <v>2698.7815000000001</v>
+      </c>
+      <c r="F54" s="34">
+        <v>0.24809699900000001</v>
+      </c>
+      <c r="G54" s="31">
+        <v>958.10940000000005</v>
+      </c>
+      <c r="H54" s="33">
+        <v>8.8078293299999999E-2</v>
+      </c>
+      <c r="I54" s="32">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="J54" s="32">
+        <v>0.9486</v>
+      </c>
+      <c r="K54" s="32">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="L54" s="32">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="M54" s="32">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="N54" s="34">
+        <v>1.8202</v>
+      </c>
+      <c r="O54" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="31">
+        <v>3</v>
+      </c>
+      <c r="D55" s="31">
+        <v>23219.1564</v>
+      </c>
+      <c r="E55" s="31">
+        <v>4801.8708999999999</v>
+      </c>
+      <c r="F55" s="34">
+        <v>0.20680643269999999</v>
+      </c>
+      <c r="G55" s="31">
+        <v>2156.3798999999999</v>
+      </c>
+      <c r="H55" s="33">
+        <v>9.2870728099999994E-2</v>
+      </c>
+      <c r="I55" s="32">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="J55" s="32">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="K55" s="32">
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="L55" s="32">
+        <v>1.55E-2</v>
+      </c>
+      <c r="M55" s="32">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="N55" s="34">
+        <v>1.1811</v>
+      </c>
+      <c r="O55" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="31">
+        <v>3</v>
+      </c>
+      <c r="D56" s="31">
+        <v>10154.1263</v>
+      </c>
+      <c r="E56" s="31">
+        <v>2386.2939000000001</v>
+      </c>
+      <c r="F56" s="34">
+        <v>0.23500730989999999</v>
+      </c>
+      <c r="G56" s="31">
+        <v>940.2432</v>
+      </c>
+      <c r="H56" s="33">
+        <v>9.2597159600000006E-2</v>
+      </c>
+      <c r="I56" s="32">
+        <v>0.82479999999999998</v>
+      </c>
+      <c r="J56" s="32">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="K56" s="32">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="L56" s="32">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M56" s="32">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="N56" s="34">
+        <v>1.536</v>
+      </c>
+      <c r="O56" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="31">
+        <v>3</v>
+      </c>
+      <c r="D57" s="31">
+        <v>5357.6880000000001</v>
+      </c>
+      <c r="E57" s="31">
+        <v>8612.2155999999995</v>
+      </c>
+      <c r="F57" s="34">
+        <v>1.6074499998</v>
+      </c>
+      <c r="G57" s="31">
+        <v>3119.4283</v>
+      </c>
+      <c r="H57" s="33">
+        <v>0.5822340479</v>
+      </c>
+      <c r="I57" s="32">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="J57" s="32">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="K57" s="32">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="L57" s="32">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="M57" s="32">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="N57" s="34">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="O57" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="31">
+        <v>3</v>
+      </c>
+      <c r="D58" s="31">
+        <v>8236.2641999999996</v>
+      </c>
+      <c r="E58" s="31">
+        <v>4258.2809999999999</v>
+      </c>
+      <c r="F58" s="34">
+        <v>0.51701608180000003</v>
+      </c>
+      <c r="G58" s="31">
+        <v>1438.6948</v>
+      </c>
+      <c r="H58" s="33">
+        <v>0.17467808269999999</v>
+      </c>
+      <c r="I58" s="32">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="J58" s="32">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="K58" s="32">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="L58" s="32">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="M58" s="32">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="N58" s="34">
+        <v>1.2183999999999999</v>
+      </c>
+      <c r="O58" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="31">
+        <v>3</v>
+      </c>
+      <c r="D59" s="31">
+        <v>1042.1222</v>
+      </c>
+      <c r="E59" s="31">
+        <v>1841.6958</v>
+      </c>
+      <c r="F59" s="34">
+        <v>1.7672549706</v>
+      </c>
+      <c r="G59" s="31">
+        <v>686.26969999999994</v>
+      </c>
+      <c r="H59" s="33">
+        <v>0.65853088169999996</v>
+      </c>
+      <c r="I59" s="32">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="J59" s="32">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="K59" s="32">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="L59" s="32">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="M59" s="32">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="N59" s="34">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="O59" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="31">
+        <v>3</v>
+      </c>
+      <c r="D60" s="31">
+        <v>3527.1590999999999</v>
+      </c>
+      <c r="E60" s="31">
+        <v>1061.0024000000001</v>
+      </c>
+      <c r="F60" s="34">
+        <v>0.30080935669999997</v>
+      </c>
+      <c r="G60" s="31">
+        <v>496.59100000000001</v>
+      </c>
+      <c r="H60" s="33">
+        <v>0.14079065090000001</v>
+      </c>
+      <c r="I60" s="32">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="J60" s="32">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="K60" s="32">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L60" s="32">
+        <v>1.83E-2</v>
+      </c>
+      <c r="M60" s="32">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N60" s="34">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="O60" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="31">
+        <v>3</v>
+      </c>
+      <c r="D61" s="31">
+        <v>140711.8768</v>
+      </c>
+      <c r="E61" s="31">
+        <v>31114.323799999998</v>
+      </c>
+      <c r="F61" s="34">
+        <v>0.22112080780000001</v>
+      </c>
+      <c r="G61" s="31">
+        <v>15082.217000000001</v>
+      </c>
+      <c r="H61" s="33">
+        <v>0.10718510320000001</v>
+      </c>
+      <c r="I61" s="32">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="J61" s="32">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="K61" s="32">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="L61" s="32">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="M61" s="32">
+        <v>0.98</v>
+      </c>
+      <c r="N61" s="34">
+        <v>1.1828000000000001</v>
+      </c>
+      <c r="O61" s="32">
         <v>0</v>
       </c>
     </row>
@@ -12949,10 +16436,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14808,447 +18295,1039 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="1">
         <v>163682.83859999999</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="1">
         <v>35857.389300000003</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="5">
         <v>0.21906627270000001</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="5">
         <v>0.1044006452</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="1">
         <v>17088.5939</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="2">
         <v>0.97709999999999997</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="2">
         <v>0.97430000000000005</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="2">
         <v>0.97660000000000002</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="3">
         <v>4.6619000000000002</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="2">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="M26" s="35">
+      <c r="M26" s="1">
         <v>293.52800000000002</v>
       </c>
-      <c r="N26" s="37">
+      <c r="N26" s="3">
         <v>3.1735000000000002</v>
       </c>
-      <c r="O26" s="37">
+      <c r="O26" s="3">
         <v>59564.473100000003</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P26" s="1">
         <v>6.8589000000000002</v>
       </c>
-      <c r="Q26" s="36">
+      <c r="Q26" s="2">
         <v>0.60640000000000005</v>
       </c>
-      <c r="R26" s="36">
+      <c r="R26" s="2">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="S26" s="35">
+      <c r="S26" s="1">
         <v>24.311499999999999</v>
       </c>
-      <c r="T26" s="35">
+      <c r="T26" s="1">
         <v>3168.683</v>
       </c>
-      <c r="U26" s="36">
+      <c r="U26" s="2">
         <v>0.94299999999999995</v>
       </c>
-      <c r="V26" s="35">
+      <c r="V26" s="1">
         <v>1039.9449</v>
       </c>
-      <c r="W26" s="39">
+      <c r="W26" s="6">
         <v>1.1904999999999999</v>
       </c>
-      <c r="X26" s="35">
+      <c r="X26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="1">
         <v>41189.5916</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="1">
         <v>10032.138800000001</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="5">
         <v>0.24356004580000001</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="5">
         <v>0.1060193745</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="1">
         <v>4366.8946999999998</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="2">
         <v>0.95650000000000002</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="2">
         <v>0.96050000000000002</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="2">
         <v>0.96660000000000001</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="3">
         <v>2.9714</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="2">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="1">
         <v>477.18270000000001</v>
       </c>
-      <c r="N27" s="37">
+      <c r="N27" s="3">
         <v>3.5013999999999998</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="3">
         <v>19836.359799999998</v>
       </c>
-      <c r="P27" s="35">
+      <c r="P27" s="1">
         <v>7.3339999999999996</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="2">
         <v>0.63260000000000005</v>
       </c>
-      <c r="R27" s="36">
+      <c r="R27" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="S27" s="35">
+      <c r="S27" s="1">
         <v>15.056900000000001</v>
       </c>
-      <c r="T27" s="35">
+      <c r="T27" s="1">
         <v>2358.5007000000001</v>
       </c>
-      <c r="U27" s="36">
+      <c r="U27" s="2">
         <v>0.94299999999999995</v>
       </c>
-      <c r="V27" s="35">
+      <c r="V27" s="1">
         <v>1065.6419000000001</v>
       </c>
-      <c r="W27" s="39">
+      <c r="W27" s="6">
         <v>1.4823</v>
       </c>
-      <c r="X27" s="35">
+      <c r="X27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="1">
         <v>86240.124899999995</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="1">
         <v>38050.813999999998</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="5">
         <v>0.4412193754</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="5">
         <v>0.20875400869999999</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="1">
         <v>18002.971799999999</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="2">
         <v>0.93300000000000005</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="2">
         <v>0.92620000000000002</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="2">
         <v>0.87749999999999995</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="3">
         <v>1.7104999999999999</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="2">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="M28" s="35">
+      <c r="M28" s="1">
         <v>1395.9970000000001</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N28" s="3">
         <v>2.9512999999999998</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="3">
         <v>59168.541400000002</v>
       </c>
-      <c r="P28" s="35">
+      <c r="P28" s="1">
         <v>6.6936999999999998</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="2">
         <v>0.66700000000000004</v>
       </c>
-      <c r="R28" s="36">
+      <c r="R28" s="2">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="S28" s="35">
+      <c r="S28" s="1">
         <v>20.423999999999999</v>
       </c>
-      <c r="T28" s="35">
+      <c r="T28" s="1">
         <v>1619.0255</v>
       </c>
-      <c r="U28" s="36">
+      <c r="U28" s="2">
         <v>0.94540000000000002</v>
       </c>
-      <c r="V28" s="35">
+      <c r="V28" s="1">
         <v>835.29750000000001</v>
       </c>
-      <c r="W28" s="39">
+      <c r="W28" s="6">
         <v>1.0301</v>
       </c>
-      <c r="X28" s="35">
+      <c r="X28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="1">
         <v>53829.2791</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="1">
         <v>25333.888999999999</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="5">
         <v>0.47063400039999997</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="5">
         <v>0.20587012930000001</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="1">
         <v>11081.8406</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="2">
         <v>0.94310000000000005</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="2">
         <v>0.92620000000000002</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="2">
         <v>0.90610000000000002</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="3">
         <v>1.7094</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="2">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M29" s="1">
         <v>931.05529999999999</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N29" s="3">
         <v>2.8612000000000002</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="3">
         <v>40778.675199999998</v>
       </c>
-      <c r="P29" s="35">
+      <c r="P29" s="1">
         <v>6.6204000000000001</v>
       </c>
-      <c r="Q29" s="36">
+      <c r="Q29" s="2">
         <v>0.65810000000000002</v>
       </c>
-      <c r="R29" s="36">
+      <c r="R29" s="2">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="S29" s="35">
+      <c r="S29" s="1">
         <v>19.698699999999999</v>
       </c>
-      <c r="T29" s="35">
+      <c r="T29" s="1">
         <v>1786.3471999999999</v>
       </c>
-      <c r="U29" s="36">
+      <c r="U29" s="2">
         <v>0.94540000000000002</v>
       </c>
-      <c r="V29" s="35">
+      <c r="V29" s="1">
         <v>827.73599999999999</v>
       </c>
-      <c r="W29" s="39">
+      <c r="W29" s="6">
         <v>1.0436000000000001</v>
       </c>
-      <c r="X29" s="35">
+      <c r="X29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="1">
         <v>8010.4328999999998</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="1">
         <v>4206.3495000000003</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="5">
         <v>0.52510888460000005</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="5">
         <v>0.1780059011</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="1">
         <v>1425.9042999999999</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="2">
         <v>0.96689999999999998</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="2">
         <v>0.9637</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="2">
         <v>0.94930000000000003</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="3">
         <v>3.4188000000000001</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="2">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="M30" s="35">
+      <c r="M30" s="1">
         <v>223.56800000000001</v>
       </c>
-      <c r="N30" s="37">
+      <c r="N30" s="3">
         <v>4.1224999999999996</v>
       </c>
-      <c r="O30" s="37">
+      <c r="O30" s="3">
         <v>11462.5396</v>
       </c>
-      <c r="P30" s="35">
+      <c r="P30" s="1">
         <v>8.1187000000000005</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="2">
         <v>0.61709999999999998</v>
       </c>
-      <c r="R30" s="36">
+      <c r="R30" s="2">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="S30" s="35">
+      <c r="S30" s="1">
         <v>12.997</v>
       </c>
-      <c r="T30" s="35">
+      <c r="T30" s="1">
         <v>1538.3641</v>
       </c>
-      <c r="U30" s="36">
+      <c r="U30" s="2">
         <v>0.92159999999999997</v>
       </c>
-      <c r="V30" s="35">
+      <c r="V30" s="1">
         <v>743.26310000000001</v>
       </c>
-      <c r="W30" s="39">
+      <c r="W30" s="6">
         <v>1.2636000000000001</v>
       </c>
-      <c r="X30" s="35">
+      <c r="X30" s="1">
         <v>1208.3924</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="1">
         <v>2</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="1">
         <v>14255.924999999999</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="1">
         <v>4444.1270999999997</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="5">
         <v>0.3117389539</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="5">
         <v>0.14226976629999999</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="1">
         <v>2028.1871000000001</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="2">
         <v>0.95499999999999996</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="2">
         <v>0.95020000000000004</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="2">
         <v>0.97729999999999995</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="3">
         <v>2.6244000000000001</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="2">
         <v>0.13109999999999999</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="1">
         <v>316.9008</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="3">
         <v>3.8925000000000001</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="3">
         <v>9404.1221999999998</v>
       </c>
-      <c r="P31" s="35">
+      <c r="P31" s="1">
         <v>8.1184999999999992</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="2">
         <v>0.66100000000000003</v>
       </c>
-      <c r="R31" s="36">
+      <c r="R31" s="2">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="S31" s="35">
+      <c r="S31" s="1">
         <v>14.157500000000001</v>
       </c>
-      <c r="T31" s="35">
+      <c r="T31" s="1">
         <v>2732.7577000000001</v>
       </c>
-      <c r="U31" s="36">
+      <c r="U31" s="2">
         <v>0.89380000000000004</v>
       </c>
-      <c r="V31" s="35">
+      <c r="V31" s="1">
         <v>1518.2494999999999</v>
       </c>
-      <c r="W31" s="39">
+      <c r="W31" s="6">
         <v>1.9658</v>
       </c>
-      <c r="X31" s="35">
+      <c r="X31" s="1">
         <v>1271.9683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="35">
+        <v>3</v>
+      </c>
+      <c r="C32" s="35">
+        <v>163931.03320000001</v>
+      </c>
+      <c r="D32" s="35">
+        <v>35916.1947</v>
+      </c>
+      <c r="E32" s="38">
+        <v>0.21909332270000001</v>
+      </c>
+      <c r="F32" s="38">
+        <v>0.1051576181</v>
+      </c>
+      <c r="G32" s="35">
+        <v>17238.597000000002</v>
+      </c>
+      <c r="H32" s="36">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="I32" s="36">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="J32" s="36">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="K32" s="37">
+        <v>4.5937999999999999</v>
+      </c>
+      <c r="L32" s="36">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="M32" s="35">
+        <v>245.7859</v>
+      </c>
+      <c r="N32" s="37">
+        <v>2.7305000000000001</v>
+      </c>
+      <c r="O32" s="37">
+        <v>51000.036999999997</v>
+      </c>
+      <c r="P32" s="35">
+        <v>6.3308</v>
+      </c>
+      <c r="Q32" s="36">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="R32" s="36">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="S32" s="35">
+        <v>21.2943</v>
+      </c>
+      <c r="T32" s="35">
+        <v>2757.7660999999998</v>
+      </c>
+      <c r="U32" s="36">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="V32" s="35">
+        <v>915.09659999999997</v>
+      </c>
+      <c r="W32" s="39">
+        <v>1.1826000000000001</v>
+      </c>
+      <c r="X32" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="35">
+        <v>3</v>
+      </c>
+      <c r="C33" s="35">
+        <v>40885.480900000002</v>
+      </c>
+      <c r="D33" s="35">
+        <v>8342.8227000000006</v>
+      </c>
+      <c r="E33" s="38">
+        <v>0.20405343200000001</v>
+      </c>
+      <c r="F33" s="38">
+        <v>6.1643281699999997E-2</v>
+      </c>
+      <c r="G33" s="35">
+        <v>2520.3152</v>
+      </c>
+      <c r="H33" s="36">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="I33" s="36">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="J33" s="36">
+        <v>0.9728</v>
+      </c>
+      <c r="K33" s="37">
+        <v>2.9836999999999998</v>
+      </c>
+      <c r="L33" s="36">
+        <v>0.1149</v>
+      </c>
+      <c r="M33" s="35">
+        <v>669.56079999999997</v>
+      </c>
+      <c r="N33" s="37">
+        <v>4.4745999999999997</v>
+      </c>
+      <c r="O33" s="37">
+        <v>26053.677299999999</v>
+      </c>
+      <c r="P33" s="35">
+        <v>8.1814999999999998</v>
+      </c>
+      <c r="Q33" s="36">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="R33" s="36">
+        <v>0.1588</v>
+      </c>
+      <c r="S33" s="35">
+        <v>15.898199999999999</v>
+      </c>
+      <c r="T33" s="35">
+        <v>2573.4931999999999</v>
+      </c>
+      <c r="U33" s="36">
+        <v>0.9637</v>
+      </c>
+      <c r="V33" s="35">
+        <v>387.68049999999999</v>
+      </c>
+      <c r="W33" s="39">
+        <v>1.5745</v>
+      </c>
+      <c r="X33" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="35">
+        <v>3</v>
+      </c>
+      <c r="C34" s="35">
+        <v>161601.802</v>
+      </c>
+      <c r="D34" s="35">
+        <v>254907.53510000001</v>
+      </c>
+      <c r="E34" s="38">
+        <v>1.5773805239000001</v>
+      </c>
+      <c r="F34" s="38">
+        <v>0.55216457190000001</v>
+      </c>
+      <c r="G34" s="35">
+        <v>89230.789799999999</v>
+      </c>
+      <c r="H34" s="36">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="I34" s="36">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="J34" s="36">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="K34" s="37">
+        <v>29526.250800000002</v>
+      </c>
+      <c r="L34" s="36">
+        <v>2.75E-2</v>
+      </c>
+      <c r="M34" s="35">
+        <v>4568.4627</v>
+      </c>
+      <c r="N34" s="37">
+        <v>1.613</v>
+      </c>
+      <c r="O34" s="37">
+        <v>267238.13799999998</v>
+      </c>
+      <c r="P34" s="35">
+        <v>4.1746999999999996</v>
+      </c>
+      <c r="Q34" s="36">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="R34" s="36">
+        <v>-0.41210000000000002</v>
+      </c>
+      <c r="S34" s="35">
+        <v>22.773900000000001</v>
+      </c>
+      <c r="T34" s="35">
+        <v>6412.5758999999998</v>
+      </c>
+      <c r="U34" s="36">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="V34" s="35">
+        <v>1790.2018</v>
+      </c>
+      <c r="W34" s="39">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="X34" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="35">
+        <v>3</v>
+      </c>
+      <c r="C35" s="35">
+        <v>87010.042400000006</v>
+      </c>
+      <c r="D35" s="35">
+        <v>30356.620800000001</v>
+      </c>
+      <c r="E35" s="38">
+        <v>0.3488864049</v>
+      </c>
+      <c r="F35" s="38">
+        <v>0.12974432159999999</v>
+      </c>
+      <c r="G35" s="35">
+        <v>11289.0589</v>
+      </c>
+      <c r="H35" s="36">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="I35" s="36">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="J35" s="36">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="K35" s="37">
+        <v>1.7283999999999999</v>
+      </c>
+      <c r="L35" s="36">
+        <v>1.03E-2</v>
+      </c>
+      <c r="M35" s="35">
+        <v>196.57050000000001</v>
+      </c>
+      <c r="N35" s="37">
+        <v>2.5448</v>
+      </c>
+      <c r="O35" s="37">
+        <v>48524.361199999999</v>
+      </c>
+      <c r="P35" s="35">
+        <v>6.1413000000000002</v>
+      </c>
+      <c r="Q35" s="36">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="R35" s="36">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="S35" s="35">
+        <v>19.814699999999998</v>
+      </c>
+      <c r="T35" s="35">
+        <v>1480.7075</v>
+      </c>
+      <c r="U35" s="36">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="V35" s="35">
+        <v>420.61709999999999</v>
+      </c>
+      <c r="W35" s="39">
+        <v>0.9254</v>
+      </c>
+      <c r="X35" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="35">
+        <v>3</v>
+      </c>
+      <c r="C36" s="35">
+        <v>54010.711799999997</v>
+      </c>
+      <c r="D36" s="35">
+        <v>20099.8433</v>
+      </c>
+      <c r="E36" s="38">
+        <v>0.3721454985</v>
+      </c>
+      <c r="F36" s="38">
+        <v>0.1186329097</v>
+      </c>
+      <c r="G36" s="35">
+        <v>6407.4479000000001</v>
+      </c>
+      <c r="H36" s="36">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="I36" s="36">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="J36" s="36">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="K36" s="37">
+        <v>1.7104999999999999</v>
+      </c>
+      <c r="L36" s="36">
+        <v>1.43E-2</v>
+      </c>
+      <c r="M36" s="35">
+        <v>197.10839999999999</v>
+      </c>
+      <c r="N36" s="37">
+        <v>2.4944000000000002</v>
+      </c>
+      <c r="O36" s="37">
+        <v>34154.813499999997</v>
+      </c>
+      <c r="P36" s="35">
+        <v>6.1277999999999997</v>
+      </c>
+      <c r="Q36" s="36">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="R36" s="36">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="S36" s="35">
+        <v>20.1629</v>
+      </c>
+      <c r="T36" s="35">
+        <v>1745.547</v>
+      </c>
+      <c r="U36" s="36">
+        <v>0.9637</v>
+      </c>
+      <c r="V36" s="35">
+        <v>386.72829999999999</v>
+      </c>
+      <c r="W36" s="39">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="X36" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="35">
+        <v>3</v>
+      </c>
+      <c r="C37" s="35">
+        <v>8236.2641999999996</v>
+      </c>
+      <c r="D37" s="35">
+        <v>4258.2809999999999</v>
+      </c>
+      <c r="E37" s="38">
+        <v>0.51701608180000003</v>
+      </c>
+      <c r="F37" s="38">
+        <v>0.17467808269999999</v>
+      </c>
+      <c r="G37" s="35">
+        <v>1438.6948</v>
+      </c>
+      <c r="H37" s="36">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="I37" s="36">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="J37" s="36">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="K37" s="37">
+        <v>3.4712999999999998</v>
+      </c>
+      <c r="L37" s="36">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="M37" s="35">
+        <v>176.92439999999999</v>
+      </c>
+      <c r="N37" s="37">
+        <v>2.8616000000000001</v>
+      </c>
+      <c r="O37" s="37">
+        <v>8068.7290000000003</v>
+      </c>
+      <c r="P37" s="35">
+        <v>6.617</v>
+      </c>
+      <c r="Q37" s="36">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="R37" s="36">
+        <v>-2.86E-2</v>
+      </c>
+      <c r="S37" s="35">
+        <v>14.2445</v>
+      </c>
+      <c r="T37" s="35">
+        <v>1662.8741</v>
+      </c>
+      <c r="U37" s="36">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="V37" s="35">
+        <v>621.70960000000002</v>
+      </c>
+      <c r="W37" s="39">
+        <v>1.2183999999999999</v>
+      </c>
+      <c r="X37" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="35">
+        <v>3</v>
+      </c>
+      <c r="C38" s="35">
+        <v>30984.440900000001</v>
+      </c>
+      <c r="D38" s="35">
+        <v>54472.002999999997</v>
+      </c>
+      <c r="E38" s="38">
+        <v>1.7580437586</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0.64931966969999999</v>
+      </c>
+      <c r="G38" s="35">
+        <v>20118.8069</v>
+      </c>
+      <c r="H38" s="36">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I38" s="36">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="J38" s="36">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="K38" s="37">
+        <v>5647.3579</v>
+      </c>
+      <c r="L38" s="36">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="M38" s="35">
+        <v>991.62630000000001</v>
+      </c>
+      <c r="N38" s="37">
+        <v>1.5702</v>
+      </c>
+      <c r="O38" s="37">
+        <v>53944.321499999998</v>
+      </c>
+      <c r="P38" s="35">
+        <v>4.13</v>
+      </c>
+      <c r="Q38" s="36">
+        <v>0.5766</v>
+      </c>
+      <c r="R38" s="36">
+        <v>-0.51580000000000004</v>
+      </c>
+      <c r="S38" s="35">
+        <v>22.657800000000002</v>
+      </c>
+      <c r="T38" s="35">
+        <v>6926.0614999999998</v>
+      </c>
+      <c r="U38" s="36">
+        <v>0.8891</v>
+      </c>
+      <c r="V38" s="35">
+        <v>2122.9665</v>
+      </c>
+      <c r="W38" s="39">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="X38" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="35">
+        <v>3</v>
+      </c>
+      <c r="C39" s="35">
+        <v>14405.088100000001</v>
+      </c>
+      <c r="D39" s="35">
+        <v>3759.7840000000001</v>
+      </c>
+      <c r="E39" s="38">
+        <v>0.26100388790000001</v>
+      </c>
+      <c r="F39" s="38">
+        <v>0.1009851822</v>
+      </c>
+      <c r="G39" s="35">
+        <v>1454.7003999999999</v>
+      </c>
+      <c r="H39" s="36">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="I39" s="36">
+        <v>0.9516</v>
+      </c>
+      <c r="J39" s="36">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="K39" s="37">
+        <v>2.6522999999999999</v>
+      </c>
+      <c r="L39" s="36">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="M39" s="35">
+        <v>197.63</v>
+      </c>
+      <c r="N39" s="37">
+        <v>4.0933000000000002</v>
+      </c>
+      <c r="O39" s="37">
+        <v>9435.4434999999994</v>
+      </c>
+      <c r="P39" s="35">
+        <v>7.9390000000000001</v>
+      </c>
+      <c r="Q39" s="36">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="R39" s="36">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="S39" s="35">
+        <v>14.070499999999999</v>
+      </c>
+      <c r="T39" s="35">
+        <v>2559.2577000000001</v>
+      </c>
+      <c r="U39" s="36">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="V39" s="35">
+        <v>897.56550000000004</v>
+      </c>
+      <c r="W39" s="39">
+        <v>1.8077000000000001</v>
+      </c>
+      <c r="X39" s="35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15258,10 +19337,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15694,100 +19773,197 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="1">
         <v>1000</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="1">
         <v>554.37</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="2">
         <v>0.55430000000000001</v>
       </c>
-      <c r="G14" s="42">
-        <v>0</v>
-      </c>
-      <c r="H14" s="43">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1.7305999999999999</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="3">
         <v>172.72030000000001</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="1">
         <v>54.702599999999997</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="3">
         <v>7.2700000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="1">
         <v>10</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="1">
         <v>8.1739999999999995</v>
       </c>
-      <c r="F15" s="42">
-        <v>0</v>
-      </c>
-      <c r="G15" s="42">
-        <v>0</v>
-      </c>
-      <c r="H15" s="43">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.50539999999999996</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="3">
         <v>1.5297000000000001</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="43"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="1">
         <v>1200</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="1">
         <v>988.60739999999998</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="2">
         <v>0.82379999999999998</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="2">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="3">
         <v>17.096599999999999</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="3">
         <v>325.15730000000002</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="1">
         <v>103.86369999999999</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="3">
         <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41">
+        <v>3</v>
+      </c>
+      <c r="D17" s="41">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="41">
+        <v>939.57</v>
+      </c>
+      <c r="F17" s="42">
+        <v>0.62629999999999997</v>
+      </c>
+      <c r="G17" s="42">
+        <v>1E-4</v>
+      </c>
+      <c r="H17" s="43">
+        <v>2.0185</v>
+      </c>
+      <c r="I17" s="43">
+        <v>212.4726</v>
+      </c>
+      <c r="J17" s="41">
+        <v>64.365200000000002</v>
+      </c>
+      <c r="K17" s="43">
+        <v>4.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41">
+        <v>3</v>
+      </c>
+      <c r="D18" s="41">
+        <v>10</v>
+      </c>
+      <c r="E18" s="41">
+        <v>38.236499999999999</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
+      <c r="H18" s="43">
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="I18" s="43">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="J18" s="41"/>
+      <c r="K18" s="43"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="41">
+        <v>3</v>
+      </c>
+      <c r="D19" s="41">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="41">
+        <v>1391.6985</v>
+      </c>
+      <c r="F19" s="42">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="G19" s="42">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="H19" s="43">
+        <v>35190.748899999999</v>
+      </c>
+      <c r="I19" s="43">
+        <v>650.28449999999998</v>
+      </c>
+      <c r="J19" s="41">
+        <v>492.00580000000002</v>
+      </c>
+      <c r="K19" s="43">
+        <v>10.904500000000001</v>
       </c>
     </row>
   </sheetData>
